--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45437173878469</v>
+        <v>21.45437173878472</v>
       </c>
       <c r="C2">
-        <v>28.41947461512387</v>
+        <v>28.41947461512385</v>
       </c>
       <c r="D2">
-        <v>7.896298901468082</v>
+        <v>7.896298901468063</v>
       </c>
       <c r="E2">
         <v>8.680753036337368</v>
@@ -433,7 +433,7 @@
         <v>64.64320216624098</v>
       </c>
       <c r="I2">
-        <v>4.868750838266426</v>
+        <v>4.868750838266432</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68116920589684</v>
+        <v>19.68116920589676</v>
       </c>
       <c r="C3">
-        <v>26.23027694315633</v>
+        <v>26.23027694315618</v>
       </c>
       <c r="D3">
-        <v>7.417911058433354</v>
+        <v>7.41791105843329</v>
       </c>
       <c r="E3">
-        <v>8.286921900172683</v>
+        <v>8.286921900172652</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.44898341191966</v>
+        <v>60.4489834119191</v>
       </c>
       <c r="I3">
-        <v>4.834074505694586</v>
+        <v>4.834074505694581</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.82366395744919</v>
+        <v>17.82366395744909</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56595051880873</v>
+        <v>18.56595051880858</v>
       </c>
       <c r="C4">
-        <v>24.84602903130902</v>
+        <v>24.84602903130883</v>
       </c>
       <c r="D4">
-        <v>7.122387927546465</v>
+        <v>7.122387927546415</v>
       </c>
       <c r="E4">
-        <v>8.046777391625701</v>
+        <v>8.046777391625639</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.81256095771868</v>
+        <v>57.8125609577182</v>
       </c>
       <c r="I4">
-        <v>4.8144857831482</v>
+        <v>4.81448578314819</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.86043286586004</v>
+        <v>16.86043286585991</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.10396280018185</v>
+        <v>18.10396280018184</v>
       </c>
       <c r="C5">
-        <v>24.27104203740317</v>
+        <v>24.27104203740315</v>
       </c>
       <c r="D5">
-        <v>7.001442783050493</v>
+        <v>7.001442783050511</v>
       </c>
       <c r="E5">
-        <v>7.949277381669479</v>
+        <v>7.949277381669415</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.72182217853361</v>
+        <v>56.72182217853413</v>
       </c>
       <c r="I5">
-        <v>4.80689659960334</v>
+        <v>4.806896599603327</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.45977485840914</v>
+        <v>16.4597748584091</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.02677306533725</v>
+        <v>18.02677306533712</v>
       </c>
       <c r="C6">
-        <v>24.17488731259951</v>
+        <v>24.1748873125994</v>
       </c>
       <c r="D6">
-        <v>6.981327853347113</v>
+        <v>6.981327853347078</v>
       </c>
       <c r="E6">
-        <v>7.933108382022787</v>
+        <v>7.93310838202278</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.53969494157364</v>
+        <v>56.53969494157312</v>
       </c>
       <c r="I6">
-        <v>4.805659255136084</v>
+        <v>4.805659255136044</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.39273652070953</v>
+        <v>16.39273652070944</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55975150169861</v>
+        <v>18.55975150169873</v>
       </c>
       <c r="C7">
-        <v>24.83831962070604</v>
+        <v>24.83831962070617</v>
       </c>
       <c r="D7">
-        <v>7.120758958782125</v>
+        <v>7.120758958782145</v>
       </c>
       <c r="E7">
-        <v>8.045461061085405</v>
+        <v>8.045461061085412</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.79791821611958</v>
+        <v>57.79791821611995</v>
       </c>
       <c r="I7">
-        <v>4.814381882402699</v>
+        <v>4.814381882402638</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.85506321718648</v>
+        <v>16.85506321718655</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.84788424576308</v>
+        <v>20.84788424576286</v>
       </c>
       <c r="C8">
-        <v>27.67240420430088</v>
+        <v>27.67240420430079</v>
       </c>
       <c r="D8">
-        <v>7.731663306019644</v>
+        <v>7.731663306019628</v>
       </c>
       <c r="E8">
-        <v>8.544564855885916</v>
+        <v>8.544564855885842</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.20900233878686</v>
+        <v>63.20900233878665</v>
       </c>
       <c r="I8">
-        <v>4.856418444366457</v>
+        <v>4.856418444366409</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.82562078112954</v>
+        <v>18.82562078112939</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.175285323425</v>
+        <v>25.17528532342488</v>
       </c>
       <c r="C9">
-        <v>32.96070230463648</v>
+        <v>32.96070230463624</v>
       </c>
       <c r="D9">
-        <v>8.92213475201029</v>
+        <v>8.922134752010273</v>
       </c>
       <c r="E9">
-        <v>9.54189503432058</v>
+        <v>9.541895034320556</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.40407440095031</v>
+        <v>73.40407440094987</v>
       </c>
       <c r="I9">
-        <v>4.954273356164076</v>
+        <v>4.954273356164029</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.49329254957173</v>
+        <v>22.49329254957166</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.35170682519641</v>
+        <v>28.35170682519647</v>
       </c>
       <c r="C10">
-        <v>36.77448560727458</v>
+        <v>36.77448560727467</v>
       </c>
       <c r="D10">
-        <v>9.835327403335851</v>
+        <v>9.835327403335976</v>
       </c>
       <c r="E10">
-        <v>10.2990209560094</v>
+        <v>10.29902095600945</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.78507209815919</v>
+        <v>80.78507209815943</v>
       </c>
       <c r="I10">
-        <v>5.039012775663421</v>
+        <v>5.039012775663515</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.13824791362785</v>
+        <v>25.1382479136279</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.82775950475006</v>
+        <v>29.82775950475017</v>
       </c>
       <c r="C11">
-        <v>38.5253435878292</v>
+        <v>38.52534358782911</v>
       </c>
       <c r="D11">
-        <v>10.29825167653167</v>
+        <v>10.29825167653174</v>
       </c>
       <c r="E11">
         <v>10.6539846967433</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.17089628831408</v>
+        <v>84.17089628831377</v>
       </c>
       <c r="I11">
-        <v>5.081466039764821</v>
+        <v>5.081466039764808</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>26.35381386983134</v>
+        <v>26.35381386983142</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>30.39510019642257</v>
       </c>
       <c r="C12">
-        <v>39.19455158504137</v>
+        <v>39.19455158504159</v>
       </c>
       <c r="D12">
-        <v>10.47485633951463</v>
+        <v>10.47485633951471</v>
       </c>
       <c r="E12">
-        <v>10.79061617155253</v>
+        <v>10.79061617155252</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.46363814611449</v>
+        <v>85.46363814611384</v>
       </c>
       <c r="I12">
-        <v>5.098238743848514</v>
+        <v>5.098238743848592</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.81873713874635</v>
+        <v>26.81873713874637</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.27246085007848</v>
+        <v>30.27246085007867</v>
       </c>
       <c r="C13">
-        <v>39.05007124455253</v>
+        <v>39.05007124455242</v>
       </c>
       <c r="D13">
         <v>10.43674377744191</v>
       </c>
       <c r="E13">
-        <v>10.76107720284027</v>
+        <v>10.76107720284031</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85.18461846688885</v>
+        <v>85.18461846688894</v>
       </c>
       <c r="I13">
-        <v>5.094592761924075</v>
+        <v>5.094592761924056</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.71834524966775</v>
+        <v>26.71834524966781</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.87423886381545</v>
+        <v>29.8742388638156</v>
       </c>
       <c r="C14">
-        <v>38.58024774274549</v>
+        <v>38.58024774274586</v>
       </c>
       <c r="D14">
-        <v>10.31274799644203</v>
+        <v>10.31274799644212</v>
       </c>
       <c r="E14">
-        <v>10.66517598195776</v>
+        <v>10.66517598195773</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.27699152998689</v>
+        <v>84.27699152998767</v>
       </c>
       <c r="I14">
-        <v>5.082831026866259</v>
+        <v>5.082831026866241</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>26.39195075490896</v>
+        <v>26.39195075490904</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.63155122308746</v>
+        <v>29.6315512230873</v>
       </c>
       <c r="C15">
-        <v>38.29341561807355</v>
+        <v>38.29341561807347</v>
       </c>
       <c r="D15">
-        <v>10.23700204502941</v>
+        <v>10.23700204502947</v>
       </c>
       <c r="E15">
-        <v>10.60674793215941</v>
+        <v>10.60674793215942</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.72266315731947</v>
+        <v>83.7226631573192</v>
       </c>
       <c r="I15">
-        <v>5.075722188982463</v>
+        <v>5.075722188982386</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.1927281511062</v>
+        <v>26.19272815110613</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.25617201189882</v>
+        <v>28.25617201189879</v>
       </c>
       <c r="C16">
-        <v>36.66068543262435</v>
+        <v>36.66068543262425</v>
       </c>
       <c r="D16">
-        <v>9.805196192152367</v>
+        <v>9.805196192152449</v>
       </c>
       <c r="E16">
-        <v>10.27608867931303</v>
+        <v>10.27608867931299</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.5648724641724</v>
+        <v>80.56487246417242</v>
       </c>
       <c r="I16">
-        <v>5.036327422723395</v>
+        <v>5.036327422723357</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25.05927627028555</v>
+        <v>25.0592762702855</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.42275169673962</v>
+        <v>27.42275169673964</v>
       </c>
       <c r="C17">
-        <v>35.66549856728975</v>
+        <v>35.66549856728965</v>
       </c>
       <c r="D17">
         <v>9.549065475640546</v>
       </c>
       <c r="E17">
-        <v>10.07635261899717</v>
+        <v>10.07635261899721</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.638821844075</v>
+        <v>78.63882184407527</v>
       </c>
       <c r="I17">
-        <v>5.013242370663088</v>
+        <v>5.013242370663066</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.36882483570467</v>
+        <v>24.36882483570475</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.94601664292093</v>
+        <v>26.94601664292085</v>
       </c>
       <c r="C18">
-        <v>35.09429624777535</v>
+        <v>35.09429624777496</v>
       </c>
       <c r="D18">
-        <v>9.415877529389778</v>
+        <v>9.415877529389762</v>
       </c>
       <c r="E18">
-        <v>9.962407157140815</v>
+        <v>9.962407157140781</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.53315531434396</v>
+        <v>77.53315531434323</v>
       </c>
       <c r="I18">
-        <v>5.000321788366529</v>
+        <v>5.000321788366467</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.9726432063939</v>
+        <v>23.97264320639381</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.78495589289446</v>
+        <v>26.78495589289474</v>
       </c>
       <c r="C19">
-        <v>34.90100662755331</v>
+        <v>34.90100662755389</v>
       </c>
       <c r="D19">
-        <v>9.370897877372721</v>
+        <v>9.370897877372787</v>
       </c>
       <c r="E19">
-        <v>9.923971322262997</v>
+        <v>9.923971322263087</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.15900256310951</v>
+        <v>77.15900256311042</v>
       </c>
       <c r="I19">
-        <v>4.996005081399933</v>
+        <v>4.996005081399986</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.83859492800187</v>
+        <v>23.83859492800211</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.51117496318217</v>
+        <v>27.51117496318249</v>
       </c>
       <c r="C20">
-        <v>35.77128961897509</v>
+        <v>35.77128961897561</v>
       </c>
       <c r="D20">
-        <v>9.573775236394933</v>
+        <v>9.573775236395168</v>
       </c>
       <c r="E20">
-        <v>10.09751367923996</v>
+        <v>10.09751367924006</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.84359125207361</v>
+        <v>78.84359125207479</v>
       </c>
       <c r="I20">
-        <v>5.015662000435266</v>
+        <v>5.015662000435377</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.4422091154209</v>
+        <v>24.44220911542112</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.99093970477651</v>
+        <v>29.99093970477653</v>
       </c>
       <c r="C21">
-        <v>38.71803942301393</v>
+        <v>38.71803942301371</v>
       </c>
       <c r="D21">
-        <v>10.34912354463631</v>
+        <v>10.34912354463629</v>
       </c>
       <c r="E21">
-        <v>10.69327731382813</v>
+        <v>10.69327731382808</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.54323050612584</v>
+        <v>84.54323050612528</v>
       </c>
       <c r="I21">
-        <v>5.086265502290133</v>
+        <v>5.08626550229005</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>26.48766744594602</v>
+        <v>26.48766744594599</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.66361638679101</v>
+        <v>31.66361638679128</v>
       </c>
       <c r="C22">
-        <v>40.68311138715667</v>
+        <v>40.68311138715709</v>
       </c>
       <c r="D22">
-        <v>10.86700056566293</v>
+        <v>10.86700056566303</v>
       </c>
       <c r="E22">
-        <v>11.09612730449334</v>
+        <v>11.09612730449339</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.33529826504885</v>
+        <v>88.33529826505023</v>
       </c>
       <c r="I22">
-        <v>5.136573631638778</v>
+        <v>5.136573631638815</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>27.8536177570017</v>
+        <v>27.85361775700196</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.76438034422048</v>
+        <v>30.76438034422083</v>
       </c>
       <c r="C23">
-        <v>39.62899673898757</v>
+        <v>39.62899673898797</v>
       </c>
       <c r="D23">
-        <v>10.5894053637092</v>
+        <v>10.58940536370923</v>
       </c>
       <c r="E23">
-        <v>10.8795662727179</v>
+        <v>10.87956627271796</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.30234578687977</v>
+        <v>86.3023457868814</v>
       </c>
       <c r="I23">
-        <v>5.109283019656159</v>
+        <v>5.109283019656208</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.12066619631456</v>
+        <v>27.12066619631483</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.47119157296494</v>
+        <v>27.47119157296475</v>
       </c>
       <c r="C24">
-        <v>35.7234588163787</v>
+        <v>35.72345881637871</v>
       </c>
       <c r="D24">
-        <v>9.562601726328193</v>
+        <v>9.562601726328191</v>
       </c>
       <c r="E24">
-        <v>10.08794405407109</v>
+        <v>10.08794405407112</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.75101033267231</v>
+        <v>78.75101033267218</v>
       </c>
       <c r="I24">
-        <v>5.014567000974325</v>
+        <v>5.014567000974255</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.40902988799374</v>
+        <v>24.4090298879937</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.01349804831331</v>
+        <v>24.01349804831356</v>
       </c>
       <c r="C25">
-        <v>31.55091753185909</v>
+        <v>31.55091753185908</v>
       </c>
       <c r="D25">
-        <v>8.599605281340587</v>
+        <v>8.599605281340654</v>
       </c>
       <c r="E25">
-        <v>9.269091196451157</v>
+        <v>9.269091196451205</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.67858943781265</v>
+        <v>70.67858943781354</v>
       </c>
       <c r="I25">
-        <v>4.925845003699434</v>
+        <v>4.925845003699505</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.51597489447331</v>
+        <v>21.51597489447339</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45437173878472</v>
+        <v>21.45437173878469</v>
       </c>
       <c r="C2">
-        <v>28.41947461512385</v>
+        <v>28.41947461512387</v>
       </c>
       <c r="D2">
-        <v>7.896298901468063</v>
+        <v>7.896298901468082</v>
       </c>
       <c r="E2">
         <v>8.680753036337368</v>
@@ -433,7 +433,7 @@
         <v>64.64320216624098</v>
       </c>
       <c r="I2">
-        <v>4.868750838266432</v>
+        <v>4.868750838266426</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68116920589676</v>
+        <v>19.68116920589684</v>
       </c>
       <c r="C3">
-        <v>26.23027694315618</v>
+        <v>26.23027694315633</v>
       </c>
       <c r="D3">
-        <v>7.41791105843329</v>
+        <v>7.417911058433354</v>
       </c>
       <c r="E3">
-        <v>8.286921900172652</v>
+        <v>8.286921900172683</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.4489834119191</v>
+        <v>60.44898341191966</v>
       </c>
       <c r="I3">
-        <v>4.834074505694581</v>
+        <v>4.834074505694586</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.82366395744909</v>
+        <v>17.82366395744919</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56595051880858</v>
+        <v>18.56595051880873</v>
       </c>
       <c r="C4">
-        <v>24.84602903130883</v>
+        <v>24.84602903130902</v>
       </c>
       <c r="D4">
-        <v>7.122387927546415</v>
+        <v>7.122387927546465</v>
       </c>
       <c r="E4">
-        <v>8.046777391625639</v>
+        <v>8.046777391625701</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.8125609577182</v>
+        <v>57.81256095771868</v>
       </c>
       <c r="I4">
-        <v>4.81448578314819</v>
+        <v>4.8144857831482</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.86043286585991</v>
+        <v>16.86043286586004</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.10396280018184</v>
+        <v>18.10396280018185</v>
       </c>
       <c r="C5">
-        <v>24.27104203740315</v>
+        <v>24.27104203740317</v>
       </c>
       <c r="D5">
-        <v>7.001442783050511</v>
+        <v>7.001442783050493</v>
       </c>
       <c r="E5">
-        <v>7.949277381669415</v>
+        <v>7.949277381669479</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.72182217853413</v>
+        <v>56.72182217853361</v>
       </c>
       <c r="I5">
-        <v>4.806896599603327</v>
+        <v>4.80689659960334</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.4597748584091</v>
+        <v>16.45977485840914</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.02677306533712</v>
+        <v>18.02677306533725</v>
       </c>
       <c r="C6">
-        <v>24.1748873125994</v>
+        <v>24.17488731259951</v>
       </c>
       <c r="D6">
-        <v>6.981327853347078</v>
+        <v>6.981327853347113</v>
       </c>
       <c r="E6">
-        <v>7.93310838202278</v>
+        <v>7.933108382022787</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.53969494157312</v>
+        <v>56.53969494157364</v>
       </c>
       <c r="I6">
-        <v>4.805659255136044</v>
+        <v>4.805659255136084</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.39273652070944</v>
+        <v>16.39273652070953</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55975150169873</v>
+        <v>18.55975150169861</v>
       </c>
       <c r="C7">
-        <v>24.83831962070617</v>
+        <v>24.83831962070604</v>
       </c>
       <c r="D7">
-        <v>7.120758958782145</v>
+        <v>7.120758958782125</v>
       </c>
       <c r="E7">
-        <v>8.045461061085412</v>
+        <v>8.045461061085405</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.79791821611995</v>
+        <v>57.79791821611958</v>
       </c>
       <c r="I7">
-        <v>4.814381882402638</v>
+        <v>4.814381882402699</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.85506321718655</v>
+        <v>16.85506321718648</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.84788424576286</v>
+        <v>20.84788424576308</v>
       </c>
       <c r="C8">
-        <v>27.67240420430079</v>
+        <v>27.67240420430088</v>
       </c>
       <c r="D8">
-        <v>7.731663306019628</v>
+        <v>7.731663306019644</v>
       </c>
       <c r="E8">
-        <v>8.544564855885842</v>
+        <v>8.544564855885916</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.20900233878665</v>
+        <v>63.20900233878686</v>
       </c>
       <c r="I8">
-        <v>4.856418444366409</v>
+        <v>4.856418444366457</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.82562078112939</v>
+        <v>18.82562078112954</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.17528532342488</v>
+        <v>25.175285323425</v>
       </c>
       <c r="C9">
-        <v>32.96070230463624</v>
+        <v>32.96070230463648</v>
       </c>
       <c r="D9">
-        <v>8.922134752010273</v>
+        <v>8.92213475201029</v>
       </c>
       <c r="E9">
-        <v>9.541895034320556</v>
+        <v>9.54189503432058</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.40407440094987</v>
+        <v>73.40407440095031</v>
       </c>
       <c r="I9">
-        <v>4.954273356164029</v>
+        <v>4.954273356164076</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.49329254957166</v>
+        <v>22.49329254957173</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.35170682519647</v>
+        <v>28.35170682519641</v>
       </c>
       <c r="C10">
-        <v>36.77448560727467</v>
+        <v>36.77448560727458</v>
       </c>
       <c r="D10">
-        <v>9.835327403335976</v>
+        <v>9.835327403335851</v>
       </c>
       <c r="E10">
-        <v>10.29902095600945</v>
+        <v>10.2990209560094</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.78507209815943</v>
+        <v>80.78507209815919</v>
       </c>
       <c r="I10">
-        <v>5.039012775663515</v>
+        <v>5.039012775663421</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.1382479136279</v>
+        <v>25.13824791362785</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.82775950475017</v>
+        <v>29.82775950475006</v>
       </c>
       <c r="C11">
-        <v>38.52534358782911</v>
+        <v>38.5253435878292</v>
       </c>
       <c r="D11">
-        <v>10.29825167653174</v>
+        <v>10.29825167653167</v>
       </c>
       <c r="E11">
         <v>10.6539846967433</v>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84.17089628831377</v>
+        <v>84.17089628831408</v>
       </c>
       <c r="I11">
-        <v>5.081466039764808</v>
+        <v>5.081466039764821</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>26.35381386983142</v>
+        <v>26.35381386983134</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>30.39510019642257</v>
       </c>
       <c r="C12">
-        <v>39.19455158504159</v>
+        <v>39.19455158504137</v>
       </c>
       <c r="D12">
-        <v>10.47485633951471</v>
+        <v>10.47485633951463</v>
       </c>
       <c r="E12">
-        <v>10.79061617155252</v>
+        <v>10.79061617155253</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>85.46363814611384</v>
+        <v>85.46363814611449</v>
       </c>
       <c r="I12">
-        <v>5.098238743848592</v>
+        <v>5.098238743848514</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.81873713874637</v>
+        <v>26.81873713874635</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.27246085007867</v>
+        <v>30.27246085007848</v>
       </c>
       <c r="C13">
-        <v>39.05007124455242</v>
+        <v>39.05007124455253</v>
       </c>
       <c r="D13">
         <v>10.43674377744191</v>
       </c>
       <c r="E13">
-        <v>10.76107720284031</v>
+        <v>10.76107720284027</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>85.18461846688894</v>
+        <v>85.18461846688885</v>
       </c>
       <c r="I13">
-        <v>5.094592761924056</v>
+        <v>5.094592761924075</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.71834524966781</v>
+        <v>26.71834524966775</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.8742388638156</v>
+        <v>29.87423886381545</v>
       </c>
       <c r="C14">
-        <v>38.58024774274586</v>
+        <v>38.58024774274549</v>
       </c>
       <c r="D14">
-        <v>10.31274799644212</v>
+        <v>10.31274799644203</v>
       </c>
       <c r="E14">
-        <v>10.66517598195773</v>
+        <v>10.66517598195776</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>84.27699152998767</v>
+        <v>84.27699152998689</v>
       </c>
       <c r="I14">
-        <v>5.082831026866241</v>
+        <v>5.082831026866259</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>26.39195075490904</v>
+        <v>26.39195075490896</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.6315512230873</v>
+        <v>29.63155122308746</v>
       </c>
       <c r="C15">
-        <v>38.29341561807347</v>
+        <v>38.29341561807355</v>
       </c>
       <c r="D15">
-        <v>10.23700204502947</v>
+        <v>10.23700204502941</v>
       </c>
       <c r="E15">
-        <v>10.60674793215942</v>
+        <v>10.60674793215941</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.7226631573192</v>
+        <v>83.72266315731947</v>
       </c>
       <c r="I15">
-        <v>5.075722188982386</v>
+        <v>5.075722188982463</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.19272815110613</v>
+        <v>26.1927281511062</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.25617201189879</v>
+        <v>28.25617201189882</v>
       </c>
       <c r="C16">
-        <v>36.66068543262425</v>
+        <v>36.66068543262435</v>
       </c>
       <c r="D16">
-        <v>9.805196192152449</v>
+        <v>9.805196192152367</v>
       </c>
       <c r="E16">
-        <v>10.27608867931299</v>
+        <v>10.27608867931303</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.56487246417242</v>
+        <v>80.5648724641724</v>
       </c>
       <c r="I16">
-        <v>5.036327422723357</v>
+        <v>5.036327422723395</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25.0592762702855</v>
+        <v>25.05927627028555</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.42275169673964</v>
+        <v>27.42275169673962</v>
       </c>
       <c r="C17">
-        <v>35.66549856728965</v>
+        <v>35.66549856728975</v>
       </c>
       <c r="D17">
         <v>9.549065475640546</v>
       </c>
       <c r="E17">
-        <v>10.07635261899721</v>
+        <v>10.07635261899717</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.63882184407527</v>
+        <v>78.638821844075</v>
       </c>
       <c r="I17">
-        <v>5.013242370663066</v>
+        <v>5.013242370663088</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.36882483570475</v>
+        <v>24.36882483570467</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.94601664292085</v>
+        <v>26.94601664292093</v>
       </c>
       <c r="C18">
-        <v>35.09429624777496</v>
+        <v>35.09429624777535</v>
       </c>
       <c r="D18">
-        <v>9.415877529389762</v>
+        <v>9.415877529389778</v>
       </c>
       <c r="E18">
-        <v>9.962407157140781</v>
+        <v>9.962407157140815</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.53315531434323</v>
+        <v>77.53315531434396</v>
       </c>
       <c r="I18">
-        <v>5.000321788366467</v>
+        <v>5.000321788366529</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.97264320639381</v>
+        <v>23.9726432063939</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.78495589289474</v>
+        <v>26.78495589289446</v>
       </c>
       <c r="C19">
-        <v>34.90100662755389</v>
+        <v>34.90100662755331</v>
       </c>
       <c r="D19">
-        <v>9.370897877372787</v>
+        <v>9.370897877372721</v>
       </c>
       <c r="E19">
-        <v>9.923971322263087</v>
+        <v>9.923971322262997</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>77.15900256311042</v>
+        <v>77.15900256310951</v>
       </c>
       <c r="I19">
-        <v>4.996005081399986</v>
+        <v>4.996005081399933</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.83859492800211</v>
+        <v>23.83859492800187</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.51117496318249</v>
+        <v>27.51117496318217</v>
       </c>
       <c r="C20">
-        <v>35.77128961897561</v>
+        <v>35.77128961897509</v>
       </c>
       <c r="D20">
-        <v>9.573775236395168</v>
+        <v>9.573775236394933</v>
       </c>
       <c r="E20">
-        <v>10.09751367924006</v>
+        <v>10.09751367923996</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.84359125207479</v>
+        <v>78.84359125207361</v>
       </c>
       <c r="I20">
-        <v>5.015662000435377</v>
+        <v>5.015662000435266</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.44220911542112</v>
+        <v>24.4422091154209</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.99093970477653</v>
+        <v>29.99093970477651</v>
       </c>
       <c r="C21">
-        <v>38.71803942301371</v>
+        <v>38.71803942301393</v>
       </c>
       <c r="D21">
-        <v>10.34912354463629</v>
+        <v>10.34912354463631</v>
       </c>
       <c r="E21">
-        <v>10.69327731382808</v>
+        <v>10.69327731382813</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>84.54323050612528</v>
+        <v>84.54323050612584</v>
       </c>
       <c r="I21">
-        <v>5.08626550229005</v>
+        <v>5.086265502290133</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>26.48766744594599</v>
+        <v>26.48766744594602</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.66361638679128</v>
+        <v>31.66361638679101</v>
       </c>
       <c r="C22">
-        <v>40.68311138715709</v>
+        <v>40.68311138715667</v>
       </c>
       <c r="D22">
-        <v>10.86700056566303</v>
+        <v>10.86700056566293</v>
       </c>
       <c r="E22">
-        <v>11.09612730449339</v>
+        <v>11.09612730449334</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88.33529826505023</v>
+        <v>88.33529826504885</v>
       </c>
       <c r="I22">
-        <v>5.136573631638815</v>
+        <v>5.136573631638778</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>27.85361775700196</v>
+        <v>27.8536177570017</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.76438034422083</v>
+        <v>30.76438034422048</v>
       </c>
       <c r="C23">
-        <v>39.62899673898797</v>
+        <v>39.62899673898757</v>
       </c>
       <c r="D23">
-        <v>10.58940536370923</v>
+        <v>10.5894053637092</v>
       </c>
       <c r="E23">
-        <v>10.87956627271796</v>
+        <v>10.8795662727179</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>86.3023457868814</v>
+        <v>86.30234578687977</v>
       </c>
       <c r="I23">
-        <v>5.109283019656208</v>
+        <v>5.109283019656159</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.12066619631483</v>
+        <v>27.12066619631456</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.47119157296475</v>
+        <v>27.47119157296494</v>
       </c>
       <c r="C24">
-        <v>35.72345881637871</v>
+        <v>35.7234588163787</v>
       </c>
       <c r="D24">
-        <v>9.562601726328191</v>
+        <v>9.562601726328193</v>
       </c>
       <c r="E24">
-        <v>10.08794405407112</v>
+        <v>10.08794405407109</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.75101033267218</v>
+        <v>78.75101033267231</v>
       </c>
       <c r="I24">
-        <v>5.014567000974255</v>
+        <v>5.014567000974325</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.4090298879937</v>
+        <v>24.40902988799374</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.01349804831356</v>
+        <v>24.01349804831331</v>
       </c>
       <c r="C25">
-        <v>31.55091753185908</v>
+        <v>31.55091753185909</v>
       </c>
       <c r="D25">
-        <v>8.599605281340654</v>
+        <v>8.599605281340587</v>
       </c>
       <c r="E25">
-        <v>9.269091196451205</v>
+        <v>9.269091196451157</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.67858943781354</v>
+        <v>70.67858943781265</v>
       </c>
       <c r="I25">
-        <v>4.925845003699505</v>
+        <v>4.925845003699434</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.51597489447339</v>
+        <v>21.51597489447331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45437173878469</v>
+        <v>21.26895580239689</v>
       </c>
       <c r="C2">
-        <v>28.41947461512387</v>
+        <v>28.29074185120099</v>
       </c>
       <c r="D2">
-        <v>7.896298901468082</v>
+        <v>7.874191399595154</v>
       </c>
       <c r="E2">
-        <v>8.680753036337368</v>
+        <v>8.615299273860673</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.047214810075972</v>
       </c>
       <c r="H2">
-        <v>64.64320216624098</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.868750838266426</v>
+        <v>64.68671467332622</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.808939630066832</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>19.34420910267326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.22420956440029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.68116920589684</v>
+        <v>19.51225732489396</v>
       </c>
       <c r="C3">
-        <v>26.23027694315633</v>
+        <v>26.12362371299596</v>
       </c>
       <c r="D3">
-        <v>7.417911058433354</v>
+        <v>7.397953999301576</v>
       </c>
       <c r="E3">
-        <v>8.286921900172683</v>
+        <v>8.218575019603207</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.068715785545522</v>
       </c>
       <c r="H3">
-        <v>60.44898341191966</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.834074505694586</v>
+        <v>60.52669245584761</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.772873836655799</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.82366395744919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.71196227313443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.56595051880873</v>
+        <v>18.40782197309955</v>
       </c>
       <c r="C4">
-        <v>24.84602903130902</v>
+        <v>24.77097493964485</v>
       </c>
       <c r="D4">
-        <v>7.122387927546465</v>
+        <v>7.103694032125775</v>
       </c>
       <c r="E4">
-        <v>8.046777391625701</v>
+        <v>7.97635494047924</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.081891083674458</v>
       </c>
       <c r="H4">
-        <v>57.81256095771868</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.8144857831482</v>
+        <v>57.91239872738399</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.752416884136389</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>16.86043286586004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.75384610276617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.10396280018185</v>
+        <v>17.95042847342269</v>
       </c>
       <c r="C5">
-        <v>24.27104203740317</v>
+        <v>24.22356326830101</v>
       </c>
       <c r="D5">
-        <v>7.001442783050493</v>
+        <v>6.983253048181656</v>
       </c>
       <c r="E5">
-        <v>7.949277381669479</v>
+        <v>7.877938281643833</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.087270015668816</v>
       </c>
       <c r="H5">
-        <v>56.72182217853361</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.80689659960334</v>
+        <v>56.83101111868122</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.744470248436689</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>16.45977485840914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.35529298459726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.02677306533725</v>
+        <v>17.87401476128275</v>
       </c>
       <c r="C6">
-        <v>24.17488731259951</v>
+        <v>24.13211561303489</v>
       </c>
       <c r="D6">
-        <v>6.981327853347113</v>
+        <v>6.963221286568062</v>
       </c>
       <c r="E6">
-        <v>7.933108382022787</v>
+        <v>7.861612923409235</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.088164214525248</v>
       </c>
       <c r="H6">
-        <v>56.53969494157364</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.805659255136084</v>
+        <v>56.6504580983917</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.743173332958094</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>16.39273652070953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.28860581323454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.55975150169861</v>
+        <v>18.40168405711367</v>
       </c>
       <c r="C7">
-        <v>24.83831962070604</v>
+        <v>24.76362895298367</v>
       </c>
       <c r="D7">
-        <v>7.120758958782125</v>
+        <v>7.102071901234061</v>
       </c>
       <c r="E7">
-        <v>8.045461061085405</v>
+        <v>7.975026528715783</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.081963565846973</v>
       </c>
       <c r="H7">
-        <v>57.79791821611958</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.814381882402699</v>
+        <v>57.89788068820151</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.752308177242627</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>16.85506321718648</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.74850473943757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.84788424576308</v>
+        <v>20.66804612955411</v>
       </c>
       <c r="C8">
-        <v>27.67240420430088</v>
+        <v>27.55109502068333</v>
       </c>
       <c r="D8">
-        <v>7.731663306019644</v>
+        <v>7.710311788900127</v>
       </c>
       <c r="E8">
-        <v>8.544564855885916</v>
+        <v>8.4781783297156</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.054644668762036</v>
       </c>
       <c r="H8">
-        <v>63.20900233878686</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.856418444366457</v>
+        <v>63.26410242587438</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.796131393387668</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>18.82562078112954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.70848833020138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.175285323425</v>
+        <v>24.95616833683905</v>
       </c>
       <c r="C9">
-        <v>32.96070230463648</v>
+        <v>32.78805363105148</v>
       </c>
       <c r="D9">
-        <v>8.92213475201029</v>
+        <v>8.894857823956455</v>
       </c>
       <c r="E9">
-        <v>9.54189503432058</v>
+        <v>9.480853954010669</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.999934351242912</v>
       </c>
       <c r="H9">
-        <v>73.40407440095031</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>4.954273356164076</v>
+        <v>73.37751651614208</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.897359380722732</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.49329254957173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>22.3546963751876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.35170682519641</v>
+        <v>28.10282472879572</v>
       </c>
       <c r="C10">
-        <v>36.77448560727458</v>
+        <v>36.56447868265381</v>
       </c>
       <c r="D10">
-        <v>9.835327403335851</v>
+        <v>9.801467226873426</v>
       </c>
       <c r="E10">
-        <v>10.2990209560094</v>
+        <v>10.23991998708215</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.95733521573091</v>
       </c>
       <c r="H10">
-        <v>80.78507209815919</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.039012775663421</v>
+        <v>80.69740116015822</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.984471393015479</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>25.13824791362785</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.98166758854221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.82775950475006</v>
+        <v>29.56411966277024</v>
       </c>
       <c r="C11">
-        <v>38.5253435878292</v>
+        <v>38.29730735865322</v>
       </c>
       <c r="D11">
-        <v>10.29825167653167</v>
+        <v>10.26142963730555</v>
       </c>
       <c r="E11">
-        <v>10.6539846967433</v>
+        <v>10.59518087732641</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.936868395576967</v>
       </c>
       <c r="H11">
-        <v>84.17089628831408</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.081466039764821</v>
+        <v>84.05340651361767</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.027968905905167</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>26.35381386983134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>26.18789350262984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.39510019642257</v>
+        <v>30.12555769199354</v>
       </c>
       <c r="C12">
-        <v>39.19455158504137</v>
+        <v>38.95939129729341</v>
       </c>
       <c r="D12">
-        <v>10.47485633951463</v>
+        <v>10.43681699571355</v>
       </c>
       <c r="E12">
-        <v>10.79061617155253</v>
+        <v>10.73181825552509</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.928892005259073</v>
       </c>
       <c r="H12">
-        <v>85.46363814611449</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.098238743848514</v>
+        <v>85.33432353332104</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.045129998108081</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>26.81873713874635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>26.64901674622021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.27246085007848</v>
+        <v>30.00420657852766</v>
       </c>
       <c r="C13">
-        <v>39.05007124455253</v>
+        <v>38.81646162176519</v>
       </c>
       <c r="D13">
-        <v>10.43674377744191</v>
+        <v>10.39897156993388</v>
       </c>
       <c r="E13">
-        <v>10.76107720284027</v>
+        <v>10.70228325631223</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.930621315447365</v>
       </c>
       <c r="H13">
-        <v>85.18461846688885</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.094592761924075</v>
+        <v>85.05787949546576</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.041400730343745</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>26.71834524966775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>26.54945707931928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.87423886381545</v>
+        <v>29.61012075957704</v>
       </c>
       <c r="C14">
-        <v>38.58024774274549</v>
+        <v>38.3516324728684</v>
       </c>
       <c r="D14">
-        <v>10.31274799644203</v>
+        <v>10.27582797593858</v>
       </c>
       <c r="E14">
-        <v>10.66517598195776</v>
+        <v>10.60637495949523</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.93621719687234</v>
       </c>
       <c r="H14">
-        <v>84.27699152998689</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.082831026866259</v>
+        <v>84.15854143976362</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.029366003537914</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>26.39195075490896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>26.22572377170046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.63155122308746</v>
+        <v>29.36992038470148</v>
       </c>
       <c r="C15">
-        <v>38.29341561807355</v>
+        <v>38.06781526240343</v>
       </c>
       <c r="D15">
-        <v>10.23700204502941</v>
+        <v>10.20059029281123</v>
       </c>
       <c r="E15">
-        <v>10.60674793215941</v>
+        <v>10.54792781061282</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.939612887671254</v>
       </c>
       <c r="H15">
-        <v>83.72266315731947</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.075722188982463</v>
+        <v>83.60921153592626</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.022088950433777</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>26.1927281511062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>26.02809321332587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.25617201189882</v>
+        <v>28.00821945283201</v>
       </c>
       <c r="C16">
-        <v>36.66068543262435</v>
+        <v>36.45182480903297</v>
       </c>
       <c r="D16">
-        <v>9.805196192152367</v>
+        <v>9.771518312131274</v>
       </c>
       <c r="E16">
-        <v>10.27608867931303</v>
+        <v>10.21695485482046</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.958645483442516</v>
       </c>
       <c r="H16">
-        <v>80.5648724641724</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5.036327422723395</v>
+        <v>80.47909143753344</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.981716946769142</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>25.05927627028555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>24.90327584285349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.42275169673962</v>
+        <v>27.18279861814542</v>
       </c>
       <c r="C17">
-        <v>35.66549856728975</v>
+        <v>35.46655650861004</v>
       </c>
       <c r="D17">
-        <v>9.549065475640546</v>
+        <v>9.518132050148969</v>
       </c>
       <c r="E17">
-        <v>10.07635261899717</v>
+        <v>10.01686383399758</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.970000482092356</v>
       </c>
       <c r="H17">
-        <v>78.638821844075</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.013242370663088</v>
+        <v>78.56935922489878</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.958022340814464</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>24.36882483570467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>24.21776982919553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.94601664292093</v>
+        <v>26.71056108040921</v>
       </c>
       <c r="C18">
-        <v>35.09429624777535</v>
+        <v>34.90097328549231</v>
       </c>
       <c r="D18">
-        <v>9.415877529389778</v>
+        <v>9.385759439114175</v>
       </c>
       <c r="E18">
-        <v>9.962407157140815</v>
+        <v>9.902660924623643</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.976434437362777</v>
       </c>
       <c r="H18">
-        <v>77.53315531434396</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.000321788366529</v>
+        <v>77.47290789156368</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.944748027482409</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>23.9726432063939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>23.82433134099797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.78495589289446</v>
+        <v>26.5510085642489</v>
       </c>
       <c r="C19">
-        <v>34.90100662755331</v>
+        <v>34.70957494284623</v>
       </c>
       <c r="D19">
-        <v>9.370897877372721</v>
+        <v>9.341050143253897</v>
       </c>
       <c r="E19">
-        <v>9.923971322262997</v>
+        <v>9.864129277536522</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.978597916629287</v>
       </c>
       <c r="H19">
-        <v>77.15900256310951</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4.996005081399933</v>
+        <v>77.1018515977064</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.94031105795648</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>23.83859492800187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>23.69119665207449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.51117496318217</v>
+        <v>27.27038184808606</v>
       </c>
       <c r="C20">
-        <v>35.77128961897509</v>
+        <v>35.57130145302958</v>
       </c>
       <c r="D20">
-        <v>9.573775236394933</v>
+        <v>9.542688041675271</v>
       </c>
       <c r="E20">
-        <v>10.09751367923996</v>
+        <v>10.03806832111959</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.968802202703887</v>
       </c>
       <c r="H20">
-        <v>78.84359125207361</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5.015662000435266</v>
+        <v>78.77241058343192</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.960507193455125</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>24.4422091154209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>24.29063869767745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.99093970477651</v>
+        <v>29.72561670560322</v>
       </c>
       <c r="C21">
-        <v>38.71803942301393</v>
+        <v>38.48796679303829</v>
       </c>
       <c r="D21">
-        <v>10.34912354463631</v>
+        <v>10.31195616022092</v>
       </c>
       <c r="E21">
-        <v>10.69327731382813</v>
+        <v>10.63448150622898</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.934580372484306</v>
       </c>
       <c r="H21">
-        <v>84.54323050612584</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.086265502290133</v>
+        <v>84.42236279575465</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.032880877305427</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>26.48766744594602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>26.32066698011319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.66361638679101</v>
+        <v>31.38030219796931</v>
       </c>
       <c r="C22">
-        <v>40.68311138715667</v>
+        <v>40.43151351686772</v>
       </c>
       <c r="D22">
-        <v>10.86700056566293</v>
+        <v>10.82605857972038</v>
       </c>
       <c r="E22">
-        <v>11.09612730449334</v>
+        <v>11.0371128739225</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.910842432830946</v>
       </c>
       <c r="H22">
-        <v>88.33529826504885</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.136573631638778</v>
+        <v>88.178628468862</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.084302691266269</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>27.8536177570017</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>27.67490840626067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.76438034422048</v>
+        <v>30.49091540092079</v>
       </c>
       <c r="C23">
-        <v>39.62899673898757</v>
+        <v>39.38912894345037</v>
       </c>
       <c r="D23">
-        <v>10.5894053637092</v>
+        <v>10.55054781534816</v>
       </c>
       <c r="E23">
-        <v>10.8795662727179</v>
+        <v>10.82073864820945</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.923668024402855</v>
       </c>
       <c r="H23">
-        <v>86.30234578687977</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.109283019656159</v>
+        <v>86.16520641131842</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.056422722741845</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>27.12066619631456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>26.94840234777341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.47119157296494</v>
+        <v>27.23077854512914</v>
       </c>
       <c r="C24">
-        <v>35.7234588163787</v>
+        <v>35.52394384473423</v>
       </c>
       <c r="D24">
-        <v>9.562601726328193</v>
+        <v>9.531584163659987</v>
       </c>
       <c r="E24">
-        <v>10.08794405407109</v>
+        <v>10.02847922742197</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.969344233325046</v>
       </c>
       <c r="H24">
-        <v>78.75101033267231</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.014567000974325</v>
+        <v>78.68060689633774</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.959382716854792</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>24.40902988799374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>24.25769279283243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.01349804831331</v>
+        <v>23.8049070054603</v>
       </c>
       <c r="C25">
-        <v>31.55091753185909</v>
+        <v>31.39180482857986</v>
       </c>
       <c r="D25">
-        <v>8.599605281340587</v>
+        <v>8.574048929763407</v>
       </c>
       <c r="E25">
-        <v>9.269091196451157</v>
+        <v>9.206916028752454</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.015006449749957</v>
       </c>
       <c r="H25">
-        <v>70.67858943781265</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.925845003699434</v>
+        <v>70.67387278647908</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.868034426831563</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>21.51597489447331</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.38340975059282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.26895580239689</v>
+        <v>20.28779122492715</v>
       </c>
       <c r="C2">
-        <v>28.29074185120099</v>
+        <v>10.02669665128824</v>
       </c>
       <c r="D2">
-        <v>7.874191399595154</v>
+        <v>7.070397522425162</v>
       </c>
       <c r="E2">
-        <v>8.615299273860673</v>
+        <v>7.061212808557785</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.047214810075972</v>
+        <v>2.101875711063671</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.68671467332622</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.808939630066832</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.09195803064723</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.144633726793735</v>
       </c>
       <c r="M2">
-        <v>19.22420956440029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.5216200667694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.51225732489396</v>
+        <v>18.94152120939721</v>
       </c>
       <c r="C3">
-        <v>26.12362371299596</v>
+        <v>9.279542184427401</v>
       </c>
       <c r="D3">
-        <v>7.397953999301576</v>
+        <v>6.546369673794607</v>
       </c>
       <c r="E3">
-        <v>8.218575019603207</v>
+        <v>6.933267428239414</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.068715785545522</v>
+        <v>2.1183039430562</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.52669245584761</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.772873836655799</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.83194613541803</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.937885774077998</v>
       </c>
       <c r="M3">
-        <v>17.71196227313443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>60.76856920446667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.40782197309955</v>
+        <v>18.14903595008065</v>
       </c>
       <c r="C4">
-        <v>24.77097493964485</v>
+        <v>8.807512463402226</v>
       </c>
       <c r="D4">
-        <v>7.103694032125775</v>
+        <v>6.234944627774622</v>
       </c>
       <c r="E4">
-        <v>7.97635494047924</v>
+        <v>6.856837465708954</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.081891083674458</v>
+        <v>2.128483157756252</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>57.91239872738399</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.752416884136389</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.03089892299168</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.815934498241664</v>
       </c>
       <c r="M4">
-        <v>16.75384610276617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>58.4080831699906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.95042847342269</v>
+        <v>17.82467679963328</v>
       </c>
       <c r="C5">
-        <v>24.22356326830101</v>
+        <v>8.611535391009186</v>
       </c>
       <c r="D5">
-        <v>6.983253048181656</v>
+        <v>6.118042812848006</v>
       </c>
       <c r="E5">
-        <v>7.877938281643833</v>
+        <v>6.826185940156209</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.087270015668816</v>
+        <v>2.132662426853999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56.83101111868122</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.744470248436689</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.69724301255567</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.767469577022236</v>
       </c>
       <c r="M5">
-        <v>16.35529298459726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>57.43191920527053</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87401476128275</v>
+        <v>17.7707370412531</v>
       </c>
       <c r="C6">
-        <v>24.13211561303489</v>
+        <v>8.578767268596851</v>
       </c>
       <c r="D6">
-        <v>6.963221286568062</v>
+        <v>6.098534752867018</v>
       </c>
       <c r="E6">
-        <v>7.861612923409235</v>
+        <v>6.821125043745495</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.088164214525248</v>
+        <v>2.133358488033437</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.6504580983917</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.743173332958094</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.64139478042957</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.759495808914487</v>
       </c>
       <c r="M6">
-        <v>16.28860581323454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57.26896814011929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40168405711367</v>
+        <v>18.14466703726738</v>
       </c>
       <c r="C7">
-        <v>24.76362895298367</v>
+        <v>8.804884457134831</v>
       </c>
       <c r="D7">
-        <v>7.102071901234061</v>
+        <v>6.233374548823734</v>
       </c>
       <c r="E7">
-        <v>7.975026528715783</v>
+        <v>6.856422137028882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.081963565846973</v>
+        <v>2.128539384849875</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>57.89788068820151</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.752308177242627</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.02642876774541</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.815275924683287</v>
       </c>
       <c r="M7">
-        <v>16.74850473943757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>58.39497597055333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66804612955411</v>
+        <v>19.78202881614334</v>
       </c>
       <c r="C8">
-        <v>27.55109502068333</v>
+        <v>9.771649741645604</v>
       </c>
       <c r="D8">
-        <v>7.710311788900127</v>
+        <v>6.892474371011134</v>
       </c>
       <c r="E8">
-        <v>8.4781783297156</v>
+        <v>7.016628593363144</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.054644668762036</v>
+        <v>2.107526143685134</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.26410242587438</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.796131393387668</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.66297230370959</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.072293315660695</v>
       </c>
       <c r="M8">
-        <v>18.70848833020138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>63.23904688084448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.95616833683905</v>
+        <v>23.40951320801318</v>
       </c>
       <c r="C9">
-        <v>32.78805363105148</v>
+        <v>11.57731818644031</v>
       </c>
       <c r="D9">
-        <v>8.894857823956455</v>
+        <v>8.130691890570843</v>
       </c>
       <c r="E9">
-        <v>9.480853954010669</v>
+        <v>7.349956787132476</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.999934351242912</v>
+        <v>2.06662952885348</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.37751651614208</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.897359380722732</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.67334116863781</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.61765229357638</v>
       </c>
       <c r="M9">
-        <v>22.3546963751876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.31397353439144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.10282472879572</v>
+        <v>25.99324662799566</v>
       </c>
       <c r="C10">
-        <v>36.56447868265381</v>
+        <v>12.87479881056595</v>
       </c>
       <c r="D10">
-        <v>9.801467226873426</v>
+        <v>8.989343194750756</v>
       </c>
       <c r="E10">
-        <v>10.23991998708215</v>
+        <v>7.610574195811454</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.95733521573091</v>
+        <v>2.036060988052478</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.69740116015822</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.984471393015479</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.7958408744195</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.047382826690658</v>
       </c>
       <c r="M10">
-        <v>24.98166758854221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>78.77517648097442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.56411966277024</v>
+        <v>27.15933864599974</v>
       </c>
       <c r="C11">
-        <v>38.29730735865322</v>
+        <v>13.46626578321325</v>
       </c>
       <c r="D11">
-        <v>10.26142963730555</v>
+        <v>9.372022557872864</v>
       </c>
       <c r="E11">
-        <v>10.59518087732641</v>
+        <v>7.733788835559145</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.936868395576967</v>
+        <v>2.02183540247212</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>84.05340651361767</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.027968905905167</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>21.75148939249999</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.250609810598649</v>
       </c>
       <c r="M11">
-        <v>26.18789350262984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>81.68916142553005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.12555769199354</v>
+        <v>27.60070317267924</v>
       </c>
       <c r="C12">
-        <v>38.95939129729341</v>
+        <v>13.69123400943201</v>
       </c>
       <c r="D12">
-        <v>10.43681699571355</v>
+        <v>9.516127171988263</v>
       </c>
       <c r="E12">
-        <v>10.73181825552509</v>
+        <v>7.781255831212023</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.928892005259073</v>
+        <v>2.016380355446221</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>85.33432353332104</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.045129998108081</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.11297075579098</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.328855294952103</v>
       </c>
       <c r="M12">
-        <v>26.64901674622021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>82.79127823386087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.00420657852766</v>
+        <v>27.50563555653611</v>
       </c>
       <c r="C13">
-        <v>38.81646162176519</v>
+        <v>13.64272380078282</v>
       </c>
       <c r="D13">
-        <v>10.39897156993388</v>
+        <v>9.485121481949738</v>
       </c>
       <c r="E13">
-        <v>10.70228325631223</v>
+        <v>7.770994401499093</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.930621315447365</v>
+        <v>2.017558637520179</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>85.05787949546576</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.041400730343745</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.0351182264951</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.311943023842396</v>
       </c>
       <c r="M13">
-        <v>26.54945707931928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.55393382687377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.61012075957704</v>
+        <v>27.19564664705215</v>
       </c>
       <c r="C14">
-        <v>38.3516324728684</v>
+        <v>13.48474878524756</v>
       </c>
       <c r="D14">
-        <v>10.27582797593858</v>
+        <v>9.383892147748917</v>
       </c>
       <c r="E14">
-        <v>10.60637495949523</v>
+        <v>7.737676846784051</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.93621719687234</v>
+        <v>2.021388123607513</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>84.15854143976362</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.029366003537914</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.78123001123067</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.257020089578269</v>
       </c>
       <c r="M14">
-        <v>26.22572377170046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>81.7798447150321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.36992038470148</v>
+        <v>27.00578070880661</v>
       </c>
       <c r="C15">
-        <v>38.06781526240343</v>
+        <v>13.38814132502615</v>
       </c>
       <c r="D15">
-        <v>10.20059029281123</v>
+        <v>9.321792196083274</v>
       </c>
       <c r="E15">
-        <v>10.54792781061282</v>
+        <v>7.717378891487534</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.939612887671254</v>
+        <v>2.02372417554332</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.60921153592626</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.022088950433777</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>21.6256982540914</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.223552115140627</v>
       </c>
       <c r="M15">
-        <v>26.02809321332587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.30559673355233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.00821945283201</v>
+        <v>25.91694275164548</v>
       </c>
       <c r="C16">
-        <v>36.45182480903297</v>
+        <v>12.83623527535372</v>
       </c>
       <c r="D16">
-        <v>9.771518312131274</v>
+        <v>8.96420145113543</v>
       </c>
       <c r="E16">
-        <v>10.21695485482046</v>
+        <v>7.60262658371772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.958645483442516</v>
+        <v>2.036982450585509</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.47909143753344</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.981716946769142</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.73326984637118</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.034270871534318</v>
       </c>
       <c r="M16">
-        <v>24.90327584285349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.58441321560042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.18279861814542</v>
+        <v>25.24731359778741</v>
       </c>
       <c r="C17">
-        <v>35.46655650861004</v>
+        <v>12.49849753339153</v>
       </c>
       <c r="D17">
-        <v>9.518132050148969</v>
+        <v>8.743015406208606</v>
       </c>
       <c r="E17">
-        <v>10.01686383399758</v>
+        <v>7.533510440833839</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.970000482092356</v>
+        <v>2.045019849832574</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.56935922489878</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.958022340814464</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.18391520211042</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.920242507344604</v>
       </c>
       <c r="M17">
-        <v>24.21776982919553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>76.91001567650588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.71056108040921</v>
+        <v>24.86120647342603</v>
       </c>
       <c r="C18">
-        <v>34.90097328549231</v>
+        <v>12.30429768570973</v>
       </c>
       <c r="D18">
-        <v>9.385759439114175</v>
+        <v>8.615025514916971</v>
       </c>
       <c r="E18">
-        <v>9.902660924623643</v>
+        <v>7.494185026152224</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.976434437362777</v>
+        <v>2.049614231063187</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.47290789156368</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.944748027482409</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.86693715891477</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.855371590689103</v>
       </c>
       <c r="M18">
-        <v>23.82433134099797</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>75.94439898336529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.5510085642489</v>
+        <v>24.7302837891393</v>
       </c>
       <c r="C19">
-        <v>34.70957494284623</v>
+        <v>12.23853309094155</v>
       </c>
       <c r="D19">
-        <v>9.341050143253897</v>
+        <v>8.571549201977817</v>
       </c>
       <c r="E19">
-        <v>9.864129277536522</v>
+        <v>7.480940041516766</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.978597916629287</v>
+        <v>2.051165505945289</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>77.1018515977064</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.94031105795648</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.75941411666215</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.833525823372494</v>
       </c>
       <c r="M19">
-        <v>23.69119665207449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.61696093297118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.27038184808606</v>
+        <v>25.31868830878813</v>
       </c>
       <c r="C20">
-        <v>35.57130145302958</v>
+        <v>12.53443899386066</v>
       </c>
       <c r="D20">
-        <v>9.542688041675271</v>
+        <v>8.766638506859522</v>
       </c>
       <c r="E20">
-        <v>10.03806832111959</v>
+        <v>7.540822750181057</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.968802202703887</v>
+        <v>2.044167350785759</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.77241058343192</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.960507193455125</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.24249219346093</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.932305917455909</v>
       </c>
       <c r="M20">
-        <v>24.29063869767745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.08850732037637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.72561670560322</v>
+        <v>27.28669311957753</v>
       </c>
       <c r="C21">
-        <v>38.48796679303829</v>
+        <v>13.53111545538113</v>
       </c>
       <c r="D21">
-        <v>10.31195616022092</v>
+        <v>9.413644556294992</v>
       </c>
       <c r="E21">
-        <v>10.63448150622898</v>
+        <v>7.747439792235757</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.934580372484306</v>
+        <v>2.020265362541036</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>84.42236279575465</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.032880877305427</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.85580468177321</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.273115645519519</v>
       </c>
       <c r="M21">
-        <v>26.32066698011319</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.00722840855211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.38030219796931</v>
+        <v>28.57243724320918</v>
       </c>
       <c r="C22">
-        <v>40.43151351686772</v>
+        <v>14.18882134976715</v>
       </c>
       <c r="D22">
-        <v>10.82605857972038</v>
+        <v>9.832005965570783</v>
       </c>
       <c r="E22">
-        <v>11.0371128739225</v>
+        <v>7.887281325773042</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.910842432830946</v>
+        <v>2.004232480992393</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>88.178628468862</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.084302691266269</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.90852290132115</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.541932035490417</v>
       </c>
       <c r="M22">
-        <v>27.67490840626067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.21563716759182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.49091540092079</v>
+        <v>27.88579853276476</v>
       </c>
       <c r="C23">
-        <v>39.38912894345037</v>
+        <v>13.83688848270819</v>
       </c>
       <c r="D23">
-        <v>10.55054781534816</v>
+        <v>9.60899910548142</v>
       </c>
       <c r="E23">
-        <v>10.82073864820945</v>
+        <v>7.812149332158808</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.923668024402855</v>
+        <v>2.0128359793839</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>86.16520641131842</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.056422722741845</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.34641479996325</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.379761538035536</v>
       </c>
       <c r="M23">
-        <v>26.94840234777341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.502880609138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.23077854512914</v>
+        <v>25.28642339726695</v>
       </c>
       <c r="C24">
-        <v>35.52394384473423</v>
+        <v>12.5181900115393</v>
       </c>
       <c r="D24">
-        <v>9.531584163659987</v>
+        <v>8.755961103265893</v>
       </c>
       <c r="E24">
-        <v>10.02847922742197</v>
+        <v>7.537515586815656</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.969344233325046</v>
+        <v>2.044552846319794</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.68060689633774</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.959382716854792</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.21601318109321</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.926849926895262</v>
       </c>
       <c r="M24">
-        <v>24.25769279283243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.0078207035973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.8049070054603</v>
+        <v>22.44380938382481</v>
       </c>
       <c r="C25">
-        <v>31.39180482857986</v>
+        <v>11.09611830476208</v>
       </c>
       <c r="D25">
-        <v>8.574048929763407</v>
+        <v>7.805605623766421</v>
       </c>
       <c r="E25">
-        <v>9.206916028752454</v>
+        <v>7.257368125997718</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.015006449749957</v>
+        <v>2.077725482060825</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.67387278647908</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.868034426831563</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.87732732057235</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.465379985422625</v>
       </c>
       <c r="M25">
-        <v>21.38340975059282</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>69.90025323840628</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.28779122492715</v>
+        <v>25.35959559336573</v>
       </c>
       <c r="C2">
-        <v>10.02669665128824</v>
+        <v>19.50558488430196</v>
       </c>
       <c r="D2">
-        <v>7.070397522425162</v>
+        <v>7.286781962975261</v>
       </c>
       <c r="E2">
-        <v>7.061212808557785</v>
+        <v>30.13574213171233</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.101875711063671</v>
+        <v>19.26065723812147</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.851265219106301</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>7.86897542562527</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.09195803064723</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.144633726793735</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>64.5216200667694</v>
+        <v>11.29816352945448</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.94152120939721</v>
+        <v>23.72559297236058</v>
       </c>
       <c r="C3">
-        <v>9.279542184427401</v>
+        <v>18.30058558770608</v>
       </c>
       <c r="D3">
-        <v>6.546369673794607</v>
+        <v>6.779773154464869</v>
       </c>
       <c r="E3">
-        <v>6.933267428239414</v>
+        <v>27.93809510924568</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.1183039430562</v>
+        <v>18.2100120980105</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.869489087367054</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.283056292385488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.83194613541803</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.937885774077998</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>60.76856920446667</v>
+        <v>11.08157146553077</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.14903595008065</v>
+        <v>22.66493859199892</v>
       </c>
       <c r="C4">
-        <v>8.807512463402226</v>
+        <v>17.5205264435036</v>
       </c>
       <c r="D4">
-        <v>6.234944627774622</v>
+        <v>6.451385091617724</v>
       </c>
       <c r="E4">
-        <v>6.856837465708954</v>
+        <v>26.52562012662554</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.128483157756252</v>
+        <v>17.58554274110039</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>6.891354421488924</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.551785793006516</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.03089892299168</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.815934498241664</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>58.4080831699906</v>
+        <v>10.9713794805783</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.82467679963328</v>
+        <v>22.21825658455218</v>
       </c>
       <c r="C5">
-        <v>8.611535391009186</v>
+        <v>17.19257296492887</v>
       </c>
       <c r="D5">
-        <v>6.118042812848006</v>
+        <v>6.313227036361585</v>
       </c>
       <c r="E5">
-        <v>6.826185940156209</v>
+        <v>25.93380287017122</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.132662426853999</v>
+        <v>17.33666386057205</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6.90278551366392</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>8.664645209734481</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.69724301255567</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.767469577022236</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>57.43191920527053</v>
+        <v>10.93200852640626</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.7707370412531</v>
+        <v>22.14321171119991</v>
       </c>
       <c r="C6">
-        <v>8.578767268596851</v>
+        <v>17.1375095948934</v>
       </c>
       <c r="D6">
-        <v>6.098534752867018</v>
+        <v>6.290022842808732</v>
       </c>
       <c r="E6">
-        <v>6.821125043745495</v>
+        <v>25.83454240767002</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.133358488033437</v>
+        <v>17.29568822898751</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6.904831157859832</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>8.683580439209795</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.64139478042957</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.759495808914487</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>57.26896814011929</v>
+        <v>10.92579874033595</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.14466703726738</v>
+        <v>22.65897304384526</v>
       </c>
       <c r="C7">
-        <v>8.804884457134831</v>
+        <v>17.51614427285326</v>
       </c>
       <c r="D7">
-        <v>6.233374548823734</v>
+        <v>6.449539459462919</v>
       </c>
       <c r="E7">
-        <v>6.856422137028882</v>
+        <v>26.51770480530769</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.128539384849875</v>
+        <v>17.58216304905509</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6.891498592816088</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8.553294629390244</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.02642876774541</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.815275924683287</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>58.39497597055333</v>
+        <v>10.97082639372652</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78202881614334</v>
+        <v>24.80807442575621</v>
       </c>
       <c r="C8">
-        <v>9.771649741645604</v>
+        <v>19.09845263223427</v>
       </c>
       <c r="D8">
-        <v>6.892474371011134</v>
+        <v>7.115485260564655</v>
       </c>
       <c r="E8">
-        <v>7.016628593363144</v>
+        <v>29.39087229226792</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.107526143685134</v>
+        <v>18.89434828099769</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.855233791680838</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>8.008547443511469</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.66297230370959</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.072293315660695</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>63.23904688084448</v>
+        <v>11.2186417141263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.40951320801318</v>
+        <v>28.56957832506217</v>
       </c>
       <c r="C9">
-        <v>11.57731818644031</v>
+        <v>21.88237805773029</v>
       </c>
       <c r="D9">
-        <v>8.130691890570843</v>
+        <v>8.287820270476356</v>
       </c>
       <c r="E9">
-        <v>7.349956787132476</v>
+        <v>34.5416632989057</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.06662952885348</v>
+        <v>21.66289923913858</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.876234144276014</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.07267070074056</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.67334116863781</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>7.61765229357638</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.31397353439144</v>
+        <v>11.89265386991022</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.99324662799566</v>
+        <v>31.06144210382641</v>
       </c>
       <c r="C10">
-        <v>12.87479881056595</v>
+        <v>23.73464476242154</v>
       </c>
       <c r="D10">
-        <v>8.989343194750756</v>
+        <v>9.07055685085356</v>
       </c>
       <c r="E10">
-        <v>7.610574195811454</v>
+        <v>38.05769150989949</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.036060988052478</v>
+        <v>23.91282826394675</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.957957772082358</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.498858223566422</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.7958408744195</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.047382826690658</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>78.77517648097442</v>
+        <v>12.51008326021335</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.15933864599974</v>
+        <v>32.13727862374506</v>
       </c>
       <c r="C11">
-        <v>13.46626578321325</v>
+        <v>24.53602337110222</v>
       </c>
       <c r="D11">
-        <v>9.372022557872864</v>
+        <v>9.410250292124523</v>
       </c>
       <c r="E11">
-        <v>7.733788835559145</v>
+        <v>39.60565758794502</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.02183540247212</v>
+        <v>24.93940705626096</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.011675053753984</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.273134439709309</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.75148939249999</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>8.250609810598649</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>81.68916142553005</v>
+        <v>12.96792965679516</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.60070317267924</v>
+        <v>32.53648439825203</v>
       </c>
       <c r="C12">
-        <v>13.69123400943201</v>
+        <v>24.83362948083341</v>
       </c>
       <c r="D12">
-        <v>9.516127171988263</v>
+        <v>9.536587179804823</v>
       </c>
       <c r="E12">
-        <v>7.781255831212023</v>
+        <v>40.18506110337799</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.016380355446221</v>
+        <v>25.32861945908346</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.034567007256342</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.193920265464664</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.11297075579098</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>8.328855294952103</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>82.79127823386087</v>
+        <v>13.17801163030292</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.50563555653611</v>
+        <v>32.45087065150683</v>
       </c>
       <c r="C13">
-        <v>13.64272380078282</v>
+        <v>24.76979396953957</v>
       </c>
       <c r="D13">
-        <v>9.485121481949738</v>
+        <v>9.509479500206531</v>
       </c>
       <c r="E13">
-        <v>7.770994401499093</v>
+        <v>40.06056679039634</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.017558637520179</v>
+        <v>25.24477326337603</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.029520690888027</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.210680217943848</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.0351182264951</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>8.311943023842396</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.55393382687377</v>
+        <v>13.13278715262189</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.19564664705215</v>
+        <v>32.17028498640231</v>
       </c>
       <c r="C14">
-        <v>13.48474878524756</v>
+        <v>24.56062456598455</v>
       </c>
       <c r="D14">
-        <v>9.383892147748917</v>
+        <v>9.420689808553036</v>
       </c>
       <c r="E14">
-        <v>7.737676846784051</v>
+        <v>39.65345742440039</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.021388123607513</v>
+        <v>24.9714178880114</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.013506304316067</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.266484198279576</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.78123001123067</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>8.257020089578269</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>81.7798447150321</v>
+        <v>12.9852225827806</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.00578070880661</v>
+        <v>31.99735506755664</v>
       </c>
       <c r="C15">
-        <v>13.38814132502615</v>
+        <v>24.43174163607355</v>
       </c>
       <c r="D15">
-        <v>9.321792196083274</v>
+        <v>9.366006111491282</v>
       </c>
       <c r="E15">
-        <v>7.717378891487534</v>
+        <v>39.40322848395159</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.02372417554332</v>
+        <v>24.80404340928118</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.004034200500355</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.301521006034666</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.6256982540914</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8.223552115140627</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.30559673355233</v>
+        <v>12.89477348176734</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.91694275164548</v>
+        <v>30.9899812447482</v>
       </c>
       <c r="C16">
-        <v>12.83623527535372</v>
+        <v>23.68144881805271</v>
       </c>
       <c r="D16">
-        <v>8.96420145113543</v>
+        <v>9.048032345451631</v>
       </c>
       <c r="E16">
-        <v>7.60262658371772</v>
+        <v>37.95554396662254</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.036982450585509</v>
+        <v>23.84580090226492</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.954794839575388</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.514415657223804</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.73326984637118</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.034270871534318</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>78.58441321560042</v>
+        <v>12.49048180140005</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.24731359778741</v>
+        <v>30.35727992943157</v>
       </c>
       <c r="C17">
-        <v>12.49849753339153</v>
+        <v>23.21065417156484</v>
       </c>
       <c r="D17">
-        <v>8.743015406208606</v>
+        <v>8.84881068682455</v>
       </c>
       <c r="E17">
-        <v>7.533510440833839</v>
+        <v>37.05467023904438</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.045019849832574</v>
+        <v>23.25872623788762</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.928948022575016</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.654824519522355</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.18391520211042</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>7.920242507344604</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>76.91001567650588</v>
+        <v>12.32180488291967</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.86120647342603</v>
+        <v>29.98792611957901</v>
       </c>
       <c r="C18">
-        <v>12.30429768570973</v>
+        <v>22.9359799487226</v>
       </c>
       <c r="D18">
-        <v>8.615025514916971</v>
+        <v>8.732678482164618</v>
       </c>
       <c r="E18">
-        <v>7.494185026152224</v>
+        <v>36.53162300778338</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.049614231063187</v>
+        <v>22.92133808133442</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.915628458829564</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.738821115901389</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.86693715891477</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>7.855371590689103</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>75.94439898336529</v>
+        <v>12.22738831209471</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.7302837891393</v>
+        <v>29.86193165350203</v>
       </c>
       <c r="C19">
-        <v>12.23853309094155</v>
+        <v>22.84231074203768</v>
       </c>
       <c r="D19">
-        <v>8.571549201977817</v>
+        <v>8.693091044210242</v>
       </c>
       <c r="E19">
-        <v>7.480940041516766</v>
+        <v>36.35367072956041</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.051165505945289</v>
+        <v>22.80715338415444</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>6.911379057408689</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.767785016697402</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.75941411666215</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.833525823372494</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>75.61696093297118</v>
+        <v>12.1958651105315</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.31868830878813</v>
+        <v>30.42519440106018</v>
       </c>
       <c r="C20">
-        <v>12.53443899386066</v>
+        <v>23.26117275181317</v>
       </c>
       <c r="D20">
-        <v>8.766638506859522</v>
+        <v>8.870177689425239</v>
       </c>
       <c r="E20">
-        <v>7.540822750181057</v>
+        <v>37.15107142834982</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.044167350785759</v>
+        <v>23.32119229863344</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>6.931538111262238</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.639534972497417</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.24249219346093</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>7.932305917455909</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.08850732037637</v>
+        <v>12.33949100955115</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.28669311957753</v>
+        <v>32.25292113043363</v>
       </c>
       <c r="C21">
-        <v>13.53111545538113</v>
+        <v>24.62222105906319</v>
       </c>
       <c r="D21">
-        <v>9.413644556294992</v>
+        <v>9.446831372595014</v>
       </c>
       <c r="E21">
-        <v>7.747439792235757</v>
+        <v>39.77321386655203</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.020265362541036</v>
+        <v>25.05169555256864</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.018139550580105</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.249912490502457</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.85580468177321</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>8.273115645519519</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>82.00722840855211</v>
+        <v>13.02857852317287</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.57243724320918</v>
+        <v>33.39976835241179</v>
       </c>
       <c r="C22">
-        <v>14.18882134976715</v>
+        <v>25.47763967961371</v>
       </c>
       <c r="D22">
-        <v>9.832005965570783</v>
+        <v>9.810345202245118</v>
       </c>
       <c r="E22">
-        <v>7.887281325773042</v>
+        <v>41.44778106730985</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.004232480992393</v>
+        <v>26.18549665508844</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.089681198395039</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.032516853712067</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.90852290132115</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>8.541932035490417</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>85.21563716759182</v>
+        <v>13.6392242243732</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.88579853276476</v>
+        <v>32.79199697927999</v>
       </c>
       <c r="C23">
-        <v>13.83688848270819</v>
+        <v>25.02418029536073</v>
       </c>
       <c r="D23">
-        <v>9.60899910548142</v>
+        <v>9.617533634957722</v>
       </c>
       <c r="E23">
-        <v>7.812149332158808</v>
+        <v>40.55738712775761</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.0128359793839</v>
+        <v>25.58007365251603</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.050075039130848</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.14467588294749</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.34641479996325</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>8.379761538035536</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>83.502880609138</v>
+        <v>13.31353576304251</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28642339726695</v>
+        <v>30.39450773619822</v>
       </c>
       <c r="C24">
-        <v>12.5181900115393</v>
+        <v>23.23834579114091</v>
       </c>
       <c r="D24">
-        <v>8.755961103265893</v>
+        <v>8.860522646195253</v>
       </c>
       <c r="E24">
-        <v>7.537515586815656</v>
+        <v>37.10750445371844</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.044552846319794</v>
+        <v>23.29295099194671</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.930362348120955</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.646437266154083</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.21601318109321</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>7.926849926895262</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.0078207035973</v>
+        <v>12.33148714932577</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.44380938382481</v>
+        <v>27.60007719465249</v>
       </c>
       <c r="C25">
-        <v>11.09611830476208</v>
+        <v>21.16332889663781</v>
       </c>
       <c r="D25">
-        <v>7.805605623766421</v>
+        <v>7.984687370737562</v>
       </c>
       <c r="E25">
-        <v>7.257368125997718</v>
+        <v>33.1974208471327</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.077725482060825</v>
+        <v>20.86548135528415</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.859642872630074</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.308803842402201</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.87732732057235</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>7.465379985422625</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>69.90025323840628</v>
+        <v>11.68929291240732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.35959559336573</v>
+        <v>14.97980646600029</v>
       </c>
       <c r="C2">
-        <v>19.50558488430196</v>
+        <v>11.54169036529256</v>
       </c>
       <c r="D2">
-        <v>7.286781962975261</v>
+        <v>5.956003378244518</v>
       </c>
       <c r="E2">
-        <v>30.13574213171233</v>
+        <v>16.60567352243067</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19.26065723812147</v>
+        <v>18.88952722893729</v>
       </c>
       <c r="H2">
-        <v>6.851265219106301</v>
+        <v>11.55325594156004</v>
       </c>
       <c r="I2">
-        <v>7.86897542562527</v>
+        <v>15.41205661939161</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.29816352945448</v>
+        <v>16.27990738049906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72559297236058</v>
+        <v>14.12598843277608</v>
       </c>
       <c r="C3">
-        <v>18.30058558770608</v>
+        <v>10.88308628679088</v>
       </c>
       <c r="D3">
-        <v>6.779773154464869</v>
+        <v>5.831707957588392</v>
       </c>
       <c r="E3">
-        <v>27.93809510924568</v>
+        <v>15.65631050192974</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>18.2100120980105</v>
+        <v>18.8376966261425</v>
       </c>
       <c r="H3">
-        <v>6.869489087367054</v>
+        <v>11.61431219392075</v>
       </c>
       <c r="I3">
-        <v>8.283056292385488</v>
+        <v>15.57718986152581</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.08157146553077</v>
+        <v>16.35947129485095</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66493859199892</v>
+        <v>13.57368922920541</v>
       </c>
       <c r="C4">
-        <v>17.5205264435036</v>
+        <v>10.45603610136106</v>
       </c>
       <c r="D4">
-        <v>6.451385091617724</v>
+        <v>5.755835246328446</v>
       </c>
       <c r="E4">
-        <v>26.52562012662554</v>
+        <v>15.04796707570479</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>17.58554274110039</v>
+        <v>18.81980491406887</v>
       </c>
       <c r="H4">
-        <v>6.891354421488924</v>
+        <v>11.65499083769751</v>
       </c>
       <c r="I4">
-        <v>8.551785793006516</v>
+        <v>15.68396404223561</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.9713794805783</v>
+        <v>16.41512930587027</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.21825658455218</v>
+        <v>13.34170703070008</v>
       </c>
       <c r="C5">
-        <v>17.19257296492887</v>
+        <v>10.27638548787544</v>
       </c>
       <c r="D5">
-        <v>6.313227036361585</v>
+        <v>5.725077168354272</v>
       </c>
       <c r="E5">
-        <v>25.93380287017122</v>
+        <v>14.79393393156256</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17.33666386057205</v>
+        <v>18.81600375420437</v>
       </c>
       <c r="H5">
-        <v>6.90278551366392</v>
+        <v>11.67236673586066</v>
       </c>
       <c r="I5">
-        <v>8.664645209734481</v>
+        <v>15.72882890540635</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.93200852640626</v>
+        <v>16.43950734213673</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.14321171119991</v>
+        <v>13.30277351906185</v>
       </c>
       <c r="C6">
-        <v>17.1375095948934</v>
+        <v>10.24621750930319</v>
       </c>
       <c r="D6">
-        <v>6.290022842808732</v>
+        <v>5.719980953679795</v>
       </c>
       <c r="E6">
-        <v>25.83454240767002</v>
+        <v>14.75139062807681</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>17.29568822898751</v>
+        <v>18.81558279203027</v>
       </c>
       <c r="H6">
-        <v>6.904831157859832</v>
+        <v>11.67530015927673</v>
       </c>
       <c r="I6">
-        <v>8.683580439209795</v>
+        <v>15.73636044107148</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.92579874033595</v>
+        <v>16.44365736114525</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.65897304384526</v>
+        <v>13.5705884327998</v>
       </c>
       <c r="C7">
-        <v>17.51614427285326</v>
+        <v>10.45363593000209</v>
       </c>
       <c r="D7">
-        <v>6.449539459462919</v>
+        <v>5.755419716705041</v>
       </c>
       <c r="E7">
-        <v>26.51770480530769</v>
+        <v>15.04456551773486</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>17.58216304905509</v>
+        <v>18.81973954427913</v>
       </c>
       <c r="H7">
-        <v>6.891498592816088</v>
+        <v>11.65522194405117</v>
       </c>
       <c r="I7">
-        <v>8.553294629390244</v>
+        <v>15.68456362475538</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.97082639372652</v>
+        <v>16.41545122503712</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80807442575621</v>
+        <v>14.69130566510876</v>
       </c>
       <c r="C8">
-        <v>19.09845263223427</v>
+        <v>11.31934729866441</v>
       </c>
       <c r="D8">
-        <v>7.115485260564655</v>
+        <v>5.913082909871251</v>
       </c>
       <c r="E8">
-        <v>29.39087229226792</v>
+        <v>16.28375547595196</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>18.89434828099769</v>
+        <v>18.86875880224762</v>
       </c>
       <c r="H8">
-        <v>6.855233791680838</v>
+        <v>11.57364421738025</v>
       </c>
       <c r="I8">
-        <v>8.008547443511469</v>
+        <v>15.46787770527352</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.2186417141263</v>
+        <v>16.30592004385321</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.56957832506217</v>
+        <v>16.66180294336104</v>
       </c>
       <c r="C9">
-        <v>21.88237805773029</v>
+        <v>12.83470874885098</v>
       </c>
       <c r="D9">
-        <v>8.287820270476356</v>
+        <v>6.223699370150761</v>
       </c>
       <c r="E9">
-        <v>34.5416632989057</v>
+        <v>18.62418747806831</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.66289923913858</v>
+        <v>19.0756070028165</v>
       </c>
       <c r="H9">
-        <v>6.876234144276014</v>
+        <v>11.43911964697766</v>
       </c>
       <c r="I9">
-        <v>7.07267070074056</v>
+        <v>15.08564995758072</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.89265386991022</v>
+        <v>16.14574923331975</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.06144210382641</v>
+        <v>17.9663646206055</v>
       </c>
       <c r="C10">
-        <v>23.73464476242154</v>
+        <v>13.83454840564394</v>
       </c>
       <c r="D10">
-        <v>9.07055685085356</v>
+        <v>6.45008390290055</v>
       </c>
       <c r="E10">
-        <v>38.05769150989949</v>
+        <v>20.28156041951576</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.91282826394675</v>
+        <v>19.29469451258568</v>
       </c>
       <c r="H10">
-        <v>6.957957772082358</v>
+        <v>11.35599011114372</v>
       </c>
       <c r="I10">
-        <v>6.498858223566422</v>
+        <v>14.83084647940949</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.51008326021335</v>
+        <v>16.06218686317134</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.13727862374506</v>
+        <v>18.52813304948098</v>
       </c>
       <c r="C11">
-        <v>24.53602337110222</v>
+        <v>14.26446411632242</v>
       </c>
       <c r="D11">
-        <v>9.410250292124523</v>
+        <v>6.552140911892568</v>
       </c>
       <c r="E11">
-        <v>39.60565758794502</v>
+        <v>20.99305485599736</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.93940705626096</v>
+        <v>19.40867321735213</v>
       </c>
       <c r="H11">
-        <v>7.011675053753984</v>
+        <v>11.32162414129091</v>
       </c>
       <c r="I11">
-        <v>6.273134439709309</v>
+        <v>14.72058228150835</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.96792965679516</v>
+        <v>16.03174367051663</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.53648439825203</v>
+        <v>18.736268629856</v>
       </c>
       <c r="C12">
-        <v>24.83362948083341</v>
+        <v>14.42366383577119</v>
       </c>
       <c r="D12">
-        <v>9.536587179804823</v>
+        <v>6.590612555693451</v>
       </c>
       <c r="E12">
-        <v>40.18506110337799</v>
+        <v>21.25641184347996</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.32861945908346</v>
+        <v>19.45385823018928</v>
       </c>
       <c r="H12">
-        <v>7.034567007256342</v>
+        <v>11.30911025029682</v>
       </c>
       <c r="I12">
-        <v>6.193920265464664</v>
+        <v>14.67964106146328</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.17801163030292</v>
+        <v>16.021316641424</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.45087065150683</v>
+        <v>18.69164771834321</v>
       </c>
       <c r="C13">
-        <v>24.76979396953957</v>
+        <v>14.38953764882966</v>
       </c>
       <c r="D13">
-        <v>9.509479500206531</v>
+        <v>6.582335428215632</v>
       </c>
       <c r="E13">
-        <v>40.06056679039634</v>
+        <v>21.19996265048718</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.24477326337603</v>
+        <v>19.44403745596546</v>
       </c>
       <c r="H13">
-        <v>7.029520690888027</v>
+        <v>11.31178305574764</v>
       </c>
       <c r="I13">
-        <v>6.210680217943848</v>
+        <v>14.68842228299624</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.13278715262189</v>
+        <v>16.02351312145804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.17028498640231</v>
+        <v>18.54534873826896</v>
       </c>
       <c r="C14">
-        <v>24.56062456598455</v>
+        <v>14.27763379961502</v>
       </c>
       <c r="D14">
-        <v>9.420689808553036</v>
+        <v>6.555309738123335</v>
       </c>
       <c r="E14">
-        <v>39.65345742440039</v>
+        <v>21.0148428611808</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.9714178880114</v>
+        <v>19.41235028250784</v>
       </c>
       <c r="H14">
-        <v>7.013506304316067</v>
+        <v>11.32058457920411</v>
       </c>
       <c r="I14">
-        <v>6.266484198279576</v>
+        <v>14.71719771132467</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.9852225827806</v>
+        <v>16.03086369415314</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.99735506755664</v>
+        <v>18.45513717727153</v>
       </c>
       <c r="C15">
-        <v>24.43174163607355</v>
+        <v>14.20862022646098</v>
       </c>
       <c r="D15">
-        <v>9.366006111491282</v>
+        <v>6.538731714684499</v>
       </c>
       <c r="E15">
-        <v>39.40322848395159</v>
+        <v>20.90066209460528</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.80404340928118</v>
+        <v>19.39320336517947</v>
       </c>
       <c r="H15">
-        <v>7.004034200500355</v>
+        <v>11.32604095766738</v>
       </c>
       <c r="I15">
-        <v>6.301521006034666</v>
+        <v>14.7349294712571</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.89477348176734</v>
+        <v>16.03550989659608</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.9899812447482</v>
+        <v>17.92901069744875</v>
       </c>
       <c r="C16">
-        <v>23.68144881805271</v>
+        <v>13.80594942030116</v>
       </c>
       <c r="D16">
-        <v>9.048032345451631</v>
+        <v>6.443391955198709</v>
       </c>
       <c r="E16">
-        <v>37.95554396662254</v>
+        <v>20.23421124982915</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.84580090226492</v>
+        <v>19.28753099696461</v>
       </c>
       <c r="H16">
-        <v>6.954794839575388</v>
+        <v>11.35830574320667</v>
       </c>
       <c r="I16">
-        <v>6.514415657223804</v>
+        <v>14.83816625184556</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.49048180140005</v>
+        <v>16.06432981557364</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35727992943157</v>
+        <v>17.59810383853685</v>
       </c>
       <c r="C17">
-        <v>23.21065417156484</v>
+        <v>13.5525280867111</v>
       </c>
       <c r="D17">
-        <v>8.84881068682455</v>
+        <v>6.384636206849326</v>
       </c>
       <c r="E17">
-        <v>37.05467023904438</v>
+        <v>19.81451642560857</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.25872623788762</v>
+        <v>19.22634856787156</v>
       </c>
       <c r="H17">
-        <v>6.928948022575016</v>
+        <v>11.37898537591142</v>
       </c>
       <c r="I17">
-        <v>6.654824519522355</v>
+        <v>14.90294595177865</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.32180488291967</v>
+        <v>16.08395790255538</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.98792611957901</v>
+        <v>17.40479429438562</v>
       </c>
       <c r="C18">
-        <v>22.9359799487226</v>
+        <v>13.40442217552418</v>
       </c>
       <c r="D18">
-        <v>8.732678482164618</v>
+        <v>6.350756604899041</v>
       </c>
       <c r="E18">
-        <v>36.53162300778338</v>
+        <v>19.56912117526506</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.92133808133442</v>
+        <v>19.1925080092936</v>
       </c>
       <c r="H18">
-        <v>6.915628458829564</v>
+        <v>11.39120427213403</v>
       </c>
       <c r="I18">
-        <v>6.738821115901389</v>
+        <v>14.94073696264739</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.22738831209471</v>
+        <v>16.09595924692483</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.86193165350203</v>
+        <v>17.33883240484055</v>
       </c>
       <c r="C19">
-        <v>22.84231074203768</v>
+        <v>13.35387398347001</v>
       </c>
       <c r="D19">
-        <v>8.693091044210242</v>
+        <v>6.339272298655141</v>
       </c>
       <c r="E19">
-        <v>36.35367072956041</v>
+        <v>19.48534687442998</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.80715338415444</v>
+        <v>19.18128296294844</v>
       </c>
       <c r="H19">
-        <v>6.911379057408689</v>
+        <v>11.39539700617249</v>
       </c>
       <c r="I19">
-        <v>6.767785016697402</v>
+        <v>14.95362358734572</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.1958651105315</v>
+        <v>16.1001445500298</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42519440106018</v>
+        <v>17.63363823519415</v>
       </c>
       <c r="C20">
-        <v>23.26117275181317</v>
+        <v>13.57974802717059</v>
       </c>
       <c r="D20">
-        <v>8.870177689425239</v>
+        <v>6.390899949730308</v>
       </c>
       <c r="E20">
-        <v>37.15107142834982</v>
+        <v>19.85960717454698</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.32119229863344</v>
+        <v>19.23272205302159</v>
       </c>
       <c r="H20">
-        <v>6.931538111262238</v>
+        <v>11.37675038090123</v>
       </c>
       <c r="I20">
-        <v>6.639534972497417</v>
+        <v>14.89599503076437</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.33949100955115</v>
+        <v>16.08179469803346</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.25292113043363</v>
+        <v>18.58844522345726</v>
       </c>
       <c r="C21">
-        <v>24.62222105906319</v>
+        <v>14.31060048298277</v>
       </c>
       <c r="D21">
-        <v>9.446831372595014</v>
+        <v>6.563252912871799</v>
       </c>
       <c r="E21">
-        <v>39.77321386655203</v>
+        <v>21.06938151162281</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.05169555256864</v>
+        <v>19.42160296388493</v>
       </c>
       <c r="H21">
-        <v>7.018139550580105</v>
+        <v>11.31798576610932</v>
       </c>
       <c r="I21">
-        <v>6.249912490502457</v>
+        <v>14.70872358168376</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.02857852317287</v>
+        <v>16.02867467087193</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.39976835241179</v>
+        <v>19.1856792324153</v>
       </c>
       <c r="C22">
-        <v>25.47763967961371</v>
+        <v>14.76726715814206</v>
       </c>
       <c r="D22">
-        <v>9.810345202245118</v>
+        <v>6.674857107322819</v>
       </c>
       <c r="E22">
-        <v>41.44778106730985</v>
+        <v>21.82467106298138</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.18549665508844</v>
+        <v>19.55682214890962</v>
       </c>
       <c r="H22">
-        <v>7.089681198395039</v>
+        <v>11.28249435020563</v>
       </c>
       <c r="I22">
-        <v>6.032516853712067</v>
+        <v>14.59107303930695</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.6392242243732</v>
+        <v>16.00038133104208</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.79199697927999</v>
+        <v>18.86938517622873</v>
       </c>
       <c r="C23">
-        <v>25.02418029536073</v>
+        <v>14.52546007690663</v>
       </c>
       <c r="D23">
-        <v>9.617533634957722</v>
+        <v>6.615400052499676</v>
       </c>
       <c r="E23">
-        <v>40.55738712775761</v>
+        <v>21.42478375538209</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.58007365251603</v>
+        <v>19.48358916195222</v>
       </c>
       <c r="H23">
-        <v>7.050075039130848</v>
+        <v>11.30116889002256</v>
       </c>
       <c r="I23">
-        <v>6.14467588294749</v>
+        <v>14.65343091296374</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.31353576304251</v>
+        <v>16.01489026930843</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39450773619822</v>
+        <v>17.61758268385637</v>
       </c>
       <c r="C24">
-        <v>23.23834579114091</v>
+        <v>13.56744939937391</v>
       </c>
       <c r="D24">
-        <v>8.860522646195253</v>
+        <v>6.388068420297493</v>
       </c>
       <c r="E24">
-        <v>37.10750445371844</v>
+        <v>19.83923444302784</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.29295099194671</v>
+        <v>19.22983644232337</v>
       </c>
       <c r="H24">
-        <v>6.930362348120955</v>
+        <v>11.37775979473187</v>
       </c>
       <c r="I24">
-        <v>6.646437266154083</v>
+        <v>14.89913583421757</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.33148714932577</v>
+        <v>16.08277045056931</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.60007719465249</v>
+        <v>16.153610737176</v>
       </c>
       <c r="C25">
-        <v>21.16332889663781</v>
+        <v>12.44456650955127</v>
       </c>
       <c r="D25">
-        <v>7.984687370737562</v>
+        <v>6.139801196593193</v>
       </c>
       <c r="E25">
-        <v>33.1974208471327</v>
+        <v>17.97597161059372</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20.86548135528415</v>
+        <v>19.00780092786124</v>
       </c>
       <c r="H25">
-        <v>6.859642872630074</v>
+        <v>11.47276794407263</v>
       </c>
       <c r="I25">
-        <v>7.308803842402201</v>
+        <v>15.1844837104312</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.68929291240732</v>
+        <v>16.18314583140229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.97980646600029</v>
+        <v>25.35959559336573</v>
       </c>
       <c r="C2">
-        <v>11.54169036529256</v>
+        <v>19.505584884302</v>
       </c>
       <c r="D2">
-        <v>5.956003378244518</v>
+        <v>7.286781962975225</v>
       </c>
       <c r="E2">
-        <v>16.60567352243067</v>
+        <v>30.13574213171239</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>18.88952722893729</v>
+        <v>19.26065723812154</v>
       </c>
       <c r="H2">
-        <v>11.55325594156004</v>
+        <v>6.851265219106311</v>
       </c>
       <c r="I2">
-        <v>15.41205661939161</v>
+        <v>7.868975425625321</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.27990738049906</v>
+        <v>11.29816352945448</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.12598843277608</v>
+        <v>23.72559297236054</v>
       </c>
       <c r="C3">
-        <v>10.88308628679088</v>
+        <v>18.30058558770591</v>
       </c>
       <c r="D3">
-        <v>5.831707957588392</v>
+        <v>6.779773154464848</v>
       </c>
       <c r="E3">
-        <v>15.65631050192974</v>
+        <v>27.93809510924564</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>18.8376966261425</v>
+        <v>18.21001209801069</v>
       </c>
       <c r="H3">
-        <v>11.61431219392075</v>
+        <v>6.869489087367099</v>
       </c>
       <c r="I3">
-        <v>15.57718986152581</v>
+        <v>8.283056292385622</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.35947129485095</v>
+        <v>11.08157146553094</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.57368922920541</v>
+        <v>22.66493859199895</v>
       </c>
       <c r="C4">
-        <v>10.45603610136106</v>
+        <v>17.52052644350342</v>
       </c>
       <c r="D4">
-        <v>5.755835246328446</v>
+        <v>6.451385091617732</v>
       </c>
       <c r="E4">
-        <v>15.04796707570479</v>
+        <v>26.52562012662555</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>18.81980491406887</v>
+        <v>17.58554274110037</v>
       </c>
       <c r="H4">
-        <v>11.65499083769751</v>
+        <v>6.891354421488967</v>
       </c>
       <c r="I4">
-        <v>15.68396404223561</v>
+        <v>8.551785793006456</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.41512930587027</v>
+        <v>10.97137948057833</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.34170703070008</v>
+        <v>22.21825658455218</v>
       </c>
       <c r="C5">
-        <v>10.27638548787544</v>
+        <v>17.19257296492892</v>
       </c>
       <c r="D5">
-        <v>5.725077168354272</v>
+        <v>6.313227036361574</v>
       </c>
       <c r="E5">
-        <v>14.79393393156256</v>
+        <v>25.93380287017124</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>18.81600375420437</v>
+        <v>17.33666386057206</v>
       </c>
       <c r="H5">
-        <v>11.67236673586066</v>
+        <v>6.902785513663878</v>
       </c>
       <c r="I5">
-        <v>15.72882890540635</v>
+        <v>8.664645209734434</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.43950734213673</v>
+        <v>10.93200852640621</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.30277351906185</v>
+        <v>22.14321171119982</v>
       </c>
       <c r="C6">
-        <v>10.24621750930319</v>
+        <v>17.13750959489355</v>
       </c>
       <c r="D6">
-        <v>5.719980953679795</v>
+        <v>6.290022842808762</v>
       </c>
       <c r="E6">
-        <v>14.75139062807681</v>
+        <v>25.83454240767009</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>18.81558279203027</v>
+        <v>17.29568822898755</v>
       </c>
       <c r="H6">
-        <v>11.67530015927673</v>
+        <v>6.90483115785983</v>
       </c>
       <c r="I6">
-        <v>15.73636044107148</v>
+        <v>8.68358043921001</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.44365736114525</v>
+        <v>10.925798740336</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.5705884327998</v>
+        <v>22.65897304384529</v>
       </c>
       <c r="C7">
-        <v>10.45363593000209</v>
+        <v>17.51614427285323</v>
       </c>
       <c r="D7">
-        <v>5.755419716705041</v>
+        <v>6.449539459462923</v>
       </c>
       <c r="E7">
-        <v>15.04456551773486</v>
+        <v>26.51770480530775</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18.81973954427913</v>
+        <v>17.58216304905507</v>
       </c>
       <c r="H7">
-        <v>11.65522194405117</v>
+        <v>6.891498592816084</v>
       </c>
       <c r="I7">
-        <v>15.68456362475538</v>
+        <v>8.55329462939021</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.41545122503712</v>
+        <v>10.97082639372649</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.69130566510876</v>
+        <v>24.80807442575622</v>
       </c>
       <c r="C8">
-        <v>11.31934729866441</v>
+        <v>19.09845263223423</v>
       </c>
       <c r="D8">
-        <v>5.913082909871251</v>
+        <v>7.115485260564655</v>
       </c>
       <c r="E8">
-        <v>16.28375547595196</v>
+        <v>29.39087229226797</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>18.86875880224762</v>
+        <v>18.89434828099777</v>
       </c>
       <c r="H8">
-        <v>11.57364421738025</v>
+        <v>6.855233791680851</v>
       </c>
       <c r="I8">
-        <v>15.46787770527352</v>
+        <v>8.008547443511491</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.30592004385321</v>
+        <v>11.21864171412633</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.66180294336104</v>
+        <v>28.56957832506219</v>
       </c>
       <c r="C9">
-        <v>12.83470874885098</v>
+        <v>21.88237805773026</v>
       </c>
       <c r="D9">
-        <v>6.223699370150761</v>
+        <v>8.287820270476383</v>
       </c>
       <c r="E9">
-        <v>18.62418747806831</v>
+        <v>34.54166329890572</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>19.0756070028165</v>
+        <v>21.66289923913859</v>
       </c>
       <c r="H9">
-        <v>11.43911964697766</v>
+        <v>6.876234144275993</v>
       </c>
       <c r="I9">
-        <v>15.08564995758072</v>
+        <v>7.072670700740467</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.14574923331975</v>
+        <v>11.89265386991019</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.9663646206055</v>
+        <v>31.06144210382644</v>
       </c>
       <c r="C10">
-        <v>13.83454840564394</v>
+        <v>23.73464476242149</v>
       </c>
       <c r="D10">
-        <v>6.45008390290055</v>
+        <v>9.070556850853571</v>
       </c>
       <c r="E10">
-        <v>20.28156041951576</v>
+        <v>38.05769150989953</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>19.29469451258568</v>
+        <v>23.91282826394669</v>
       </c>
       <c r="H10">
-        <v>11.35599011114372</v>
+        <v>6.957957772082462</v>
       </c>
       <c r="I10">
-        <v>14.83084647940949</v>
+        <v>6.498858223566524</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.06218686317134</v>
+        <v>12.51008326021339</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.52813304948098</v>
+        <v>32.1372786237451</v>
       </c>
       <c r="C11">
-        <v>14.26446411632242</v>
+        <v>24.53602337110216</v>
       </c>
       <c r="D11">
-        <v>6.552140911892568</v>
+        <v>9.4102502921245</v>
       </c>
       <c r="E11">
-        <v>20.99305485599736</v>
+        <v>39.60565758794502</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>19.40867321735213</v>
+        <v>24.939407056261</v>
       </c>
       <c r="H11">
-        <v>11.32162414129091</v>
+        <v>7.011675053753982</v>
       </c>
       <c r="I11">
-        <v>14.72058228150835</v>
+        <v>6.273134439709269</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.03174367051663</v>
+        <v>12.96792965679523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.736268629856</v>
+        <v>32.5364843982521</v>
       </c>
       <c r="C12">
-        <v>14.42366383577119</v>
+        <v>24.83362948083349</v>
       </c>
       <c r="D12">
-        <v>6.590612555693451</v>
+        <v>9.536587179804808</v>
       </c>
       <c r="E12">
-        <v>21.25641184347996</v>
+        <v>40.185061103378</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>19.45385823018928</v>
+        <v>25.32861945908352</v>
       </c>
       <c r="H12">
-        <v>11.30911025029682</v>
+        <v>7.034567007256287</v>
       </c>
       <c r="I12">
-        <v>14.67964106146328</v>
+        <v>6.193920265464574</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.021316641424</v>
+        <v>13.178011630303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.69164771834321</v>
+        <v>32.45087065150678</v>
       </c>
       <c r="C13">
-        <v>14.38953764882966</v>
+        <v>24.76979396953944</v>
       </c>
       <c r="D13">
-        <v>6.582335428215632</v>
+        <v>9.509479500206504</v>
       </c>
       <c r="E13">
-        <v>21.19996265048718</v>
+        <v>40.06056679039625</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.44403745596546</v>
+        <v>25.24477326337591</v>
       </c>
       <c r="H13">
-        <v>11.31178305574764</v>
+        <v>7.029520690888166</v>
       </c>
       <c r="I13">
-        <v>14.68842228299624</v>
+        <v>6.210680217944049</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.02351312145804</v>
+        <v>13.13278715262179</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.54534873826896</v>
+        <v>32.1702849864023</v>
       </c>
       <c r="C14">
-        <v>14.27763379961502</v>
+        <v>24.56062456598456</v>
       </c>
       <c r="D14">
-        <v>6.555309738123335</v>
+        <v>9.420689808553039</v>
       </c>
       <c r="E14">
-        <v>21.0148428611808</v>
+        <v>39.65345742440041</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>19.41235028250784</v>
+        <v>24.9714178880115</v>
       </c>
       <c r="H14">
-        <v>11.32058457920411</v>
+        <v>7.013506304316048</v>
       </c>
       <c r="I14">
-        <v>14.71719771132467</v>
+        <v>6.266484198279529</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.03086369415314</v>
+        <v>12.98522258278066</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.45513717727153</v>
+        <v>31.9973550675566</v>
       </c>
       <c r="C15">
-        <v>14.20862022646098</v>
+        <v>24.43174163607351</v>
       </c>
       <c r="D15">
-        <v>6.538731714684499</v>
+        <v>9.36600611149129</v>
       </c>
       <c r="E15">
-        <v>20.90066209460528</v>
+        <v>39.40322848395152</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>19.39320336517947</v>
+        <v>24.80404340928114</v>
       </c>
       <c r="H15">
-        <v>11.32604095766738</v>
+        <v>7.004034200500321</v>
       </c>
       <c r="I15">
-        <v>14.7349294712571</v>
+        <v>6.301521006034666</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.03550989659608</v>
+        <v>12.89477348176733</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.92901069744875</v>
+        <v>30.98998124474824</v>
       </c>
       <c r="C16">
-        <v>13.80594942030116</v>
+        <v>23.68144881805268</v>
       </c>
       <c r="D16">
-        <v>6.443391955198709</v>
+        <v>9.048032345451688</v>
       </c>
       <c r="E16">
-        <v>20.23421124982915</v>
+        <v>37.9555439666225</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>19.28753099696461</v>
+        <v>23.84580090226496</v>
       </c>
       <c r="H16">
-        <v>11.35830574320667</v>
+        <v>6.954794839575368</v>
       </c>
       <c r="I16">
-        <v>14.83816625184556</v>
+        <v>6.514415657223682</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.06432981557364</v>
+        <v>12.49048180139999</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.59810383853685</v>
+        <v>30.35727992943157</v>
       </c>
       <c r="C17">
-        <v>13.5525280867111</v>
+        <v>23.21065417156488</v>
       </c>
       <c r="D17">
-        <v>6.384636206849326</v>
+        <v>8.848810686824601</v>
       </c>
       <c r="E17">
-        <v>19.81451642560857</v>
+        <v>37.05467023904438</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>19.22634856787156</v>
+        <v>23.25872623788779</v>
       </c>
       <c r="H17">
-        <v>11.37898537591142</v>
+        <v>6.928948022574978</v>
       </c>
       <c r="I17">
-        <v>14.90294595177865</v>
+        <v>6.654824519522435</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.08395790255538</v>
+        <v>12.32180488291973</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.40479429438562</v>
+        <v>29.98792611957899</v>
       </c>
       <c r="C18">
-        <v>13.40442217552418</v>
+        <v>22.93597994872255</v>
       </c>
       <c r="D18">
-        <v>6.350756604899041</v>
+        <v>8.732678482164602</v>
       </c>
       <c r="E18">
-        <v>19.56912117526506</v>
+        <v>36.53162300778344</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>19.1925080092936</v>
+        <v>22.92133808133447</v>
       </c>
       <c r="H18">
-        <v>11.39120427213403</v>
+        <v>6.915628458829515</v>
       </c>
       <c r="I18">
-        <v>14.94073696264739</v>
+        <v>6.738821115901422</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.09595924692483</v>
+        <v>12.22738831209477</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.33883240484055</v>
+        <v>29.86193165350207</v>
       </c>
       <c r="C19">
-        <v>13.35387398347001</v>
+        <v>22.84231074203758</v>
       </c>
       <c r="D19">
-        <v>6.339272298655141</v>
+        <v>8.693091044210242</v>
       </c>
       <c r="E19">
-        <v>19.48534687442998</v>
+        <v>36.35367072956043</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>19.18128296294844</v>
+        <v>22.80715338415443</v>
       </c>
       <c r="H19">
-        <v>11.39539700617249</v>
+        <v>6.91137905740866</v>
       </c>
       <c r="I19">
-        <v>14.95362358734572</v>
+        <v>6.767785016697308</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.1001445500298</v>
+        <v>12.19586511053146</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.63363823519415</v>
+        <v>30.42519440106017</v>
       </c>
       <c r="C20">
-        <v>13.57974802717059</v>
+        <v>23.26117275181305</v>
       </c>
       <c r="D20">
-        <v>6.390899949730308</v>
+        <v>8.870177689425212</v>
       </c>
       <c r="E20">
-        <v>19.85960717454698</v>
+        <v>37.15107142834982</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>19.23272205302159</v>
+        <v>23.32119229863343</v>
       </c>
       <c r="H20">
-        <v>11.37675038090123</v>
+        <v>6.931538111262259</v>
       </c>
       <c r="I20">
-        <v>14.89599503076437</v>
+        <v>6.639534972497444</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.08179469803346</v>
+        <v>12.33949100955119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.58844522345726</v>
+        <v>32.25292113043359</v>
       </c>
       <c r="C21">
-        <v>14.31060048298277</v>
+        <v>24.6222210590631</v>
       </c>
       <c r="D21">
-        <v>6.563252912871799</v>
+        <v>9.446831372595033</v>
       </c>
       <c r="E21">
-        <v>21.06938151162281</v>
+        <v>39.77321386655188</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>19.42160296388493</v>
+        <v>25.05169555256846</v>
       </c>
       <c r="H21">
-        <v>11.31798576610932</v>
+        <v>7.018139550580105</v>
       </c>
       <c r="I21">
-        <v>14.70872358168376</v>
+        <v>6.249912490502519</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.02867467087193</v>
+        <v>13.0285785231728</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.1856792324153</v>
+        <v>33.39976835241163</v>
       </c>
       <c r="C22">
-        <v>14.76726715814206</v>
+        <v>25.4776396796137</v>
       </c>
       <c r="D22">
-        <v>6.674857107322819</v>
+        <v>9.810345202245117</v>
       </c>
       <c r="E22">
-        <v>21.82467106298138</v>
+        <v>41.44778106730977</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>19.55682214890962</v>
+        <v>26.18549665508808</v>
       </c>
       <c r="H22">
-        <v>11.28249435020563</v>
+        <v>7.089681198395104</v>
       </c>
       <c r="I22">
-        <v>14.59107303930695</v>
+        <v>6.032516853712351</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.00038133104208</v>
+        <v>13.639224224373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86938517622873</v>
+        <v>32.79199697928003</v>
       </c>
       <c r="C23">
-        <v>14.52546007690663</v>
+        <v>25.02418029536068</v>
       </c>
       <c r="D23">
-        <v>6.615400052499676</v>
+        <v>9.617533634957653</v>
       </c>
       <c r="E23">
-        <v>21.42478375538209</v>
+        <v>40.55738712775758</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>19.48358916195222</v>
+        <v>25.58007365251611</v>
       </c>
       <c r="H23">
-        <v>11.30116889002256</v>
+        <v>7.050075039130871</v>
       </c>
       <c r="I23">
-        <v>14.65343091296374</v>
+        <v>6.14467588294753</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.01489026930843</v>
+        <v>13.31353576304254</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.61758268385637</v>
+        <v>30.39450773619825</v>
       </c>
       <c r="C24">
-        <v>13.56744939937391</v>
+        <v>23.23834579114086</v>
       </c>
       <c r="D24">
-        <v>6.388068420297493</v>
+        <v>8.86052264619526</v>
       </c>
       <c r="E24">
-        <v>19.83923444302784</v>
+        <v>37.10750445371846</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>19.22983644232337</v>
+        <v>23.2929509919467</v>
       </c>
       <c r="H24">
-        <v>11.37775979473187</v>
+        <v>6.930362348120955</v>
       </c>
       <c r="I24">
-        <v>14.89913583421757</v>
+        <v>6.646437266154084</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.08277045056931</v>
+        <v>12.33148714932581</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.153610737176</v>
+        <v>27.60007719465249</v>
       </c>
       <c r="C25">
-        <v>12.44456650955127</v>
+        <v>21.16332889663785</v>
       </c>
       <c r="D25">
-        <v>6.139801196593193</v>
+        <v>7.984687370737591</v>
       </c>
       <c r="E25">
-        <v>17.97597161059372</v>
+        <v>33.19742084713273</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>19.00780092786124</v>
+        <v>20.86548135528412</v>
       </c>
       <c r="H25">
-        <v>11.47276794407263</v>
+        <v>6.859642872630026</v>
       </c>
       <c r="I25">
-        <v>15.1844837104312</v>
+        <v>7.308803842402141</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.18314583140229</v>
+        <v>11.68929291240727</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.35959559336573</v>
+        <v>14.0279526506826</v>
       </c>
       <c r="C2">
-        <v>19.505584884302</v>
+        <v>8.382934343219498</v>
       </c>
       <c r="D2">
-        <v>7.286781962975225</v>
+        <v>7.058883708140562</v>
       </c>
       <c r="E2">
-        <v>30.13574213171239</v>
+        <v>8.782716234637396</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19.26065723812154</v>
+        <v>24.50537134826402</v>
       </c>
       <c r="H2">
-        <v>6.851265219106311</v>
+        <v>2.291167736478232</v>
       </c>
       <c r="I2">
-        <v>7.868975425625321</v>
+        <v>3.214377593525612</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.647964923354337</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.04605088031109</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.83488452260344</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.234552554340301</v>
       </c>
       <c r="O2">
-        <v>11.29816352945448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.90426679971009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.72559297236054</v>
+        <v>13.12066114537646</v>
       </c>
       <c r="C3">
-        <v>18.30058558770591</v>
+        <v>8.194182342405888</v>
       </c>
       <c r="D3">
-        <v>6.779773154464848</v>
+        <v>6.577385694693428</v>
       </c>
       <c r="E3">
-        <v>27.93809510924564</v>
+        <v>8.534134090623452</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>18.21001209801069</v>
+        <v>24.21485935152886</v>
       </c>
       <c r="H3">
-        <v>6.869489087367099</v>
+        <v>2.477034754894893</v>
       </c>
       <c r="I3">
-        <v>8.283056292385622</v>
+        <v>3.362449505395874</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.677304651881444</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.09644628424608</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.21233885393833</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.95648799379779</v>
       </c>
       <c r="O3">
-        <v>11.08157146553094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.87961112345655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.66493859199895</v>
+        <v>12.52900280895817</v>
       </c>
       <c r="C4">
-        <v>17.52052644350342</v>
+        <v>8.075962125035353</v>
       </c>
       <c r="D4">
-        <v>6.451385091617732</v>
+        <v>6.272746872427075</v>
       </c>
       <c r="E4">
-        <v>26.52562012662555</v>
+        <v>8.376017557674245</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>17.58554274110037</v>
+        <v>24.04517866912935</v>
       </c>
       <c r="H4">
-        <v>6.891354421488967</v>
+        <v>2.59545131746419</v>
       </c>
       <c r="I4">
-        <v>8.551785793006456</v>
+        <v>3.457471123867004</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.69801466818425</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.13081775500507</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.81163154583087</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.780186558588334</v>
       </c>
       <c r="O4">
-        <v>10.97137948057833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.86997509339303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.21825658455218</v>
+        <v>12.27683643730463</v>
       </c>
       <c r="C5">
-        <v>17.19257296492892</v>
+        <v>8.030519364931186</v>
       </c>
       <c r="D5">
-        <v>6.313227036361574</v>
+        <v>6.160874637865579</v>
       </c>
       <c r="E5">
-        <v>25.93380287017124</v>
+        <v>8.307640795341943</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17.33666386057206</v>
+        <v>23.96441802778174</v>
       </c>
       <c r="H5">
-        <v>6.902785513663878</v>
+        <v>2.645104701421609</v>
       </c>
       <c r="I5">
-        <v>8.664645209734434</v>
+        <v>3.499872184741455</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.704841566675977</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.13981921443241</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.64542954676799</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.70759874766992</v>
       </c>
       <c r="O5">
-        <v>10.93200852640621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.86171741849092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.14321171119982</v>
+        <v>12.23156300041688</v>
       </c>
       <c r="C6">
-        <v>17.13750959489355</v>
+        <v>8.027024980718442</v>
       </c>
       <c r="D6">
-        <v>6.290022842808762</v>
+        <v>6.14212581958046</v>
       </c>
       <c r="E6">
-        <v>25.83454240767009</v>
+        <v>8.293014257500046</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>17.29568822898755</v>
+        <v>23.93426713860929</v>
       </c>
       <c r="H6">
-        <v>6.90483115785983</v>
+        <v>2.653787614620126</v>
       </c>
       <c r="I6">
-        <v>8.68358043921001</v>
+        <v>3.510361694831488</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.703234018509933</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.13422276251402</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.61956946017132</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.696184775782149</v>
       </c>
       <c r="O6">
-        <v>10.925798740336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.85348432115505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.65897304384529</v>
+        <v>12.51797094650569</v>
       </c>
       <c r="C7">
-        <v>17.51614427285323</v>
+        <v>8.086479888227942</v>
       </c>
       <c r="D7">
-        <v>6.449539459462923</v>
+        <v>6.271207614312134</v>
       </c>
       <c r="E7">
-        <v>26.51770480530775</v>
+        <v>8.366478166745923</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>17.58216304905507</v>
+        <v>23.998216904274</v>
       </c>
       <c r="H7">
-        <v>6.891498592816084</v>
+        <v>2.597111919046849</v>
       </c>
       <c r="I7">
-        <v>8.55329462939021</v>
+        <v>3.46699533487906</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.69052711782467</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.11146113120776</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.81481248417562</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.781152421178834</v>
       </c>
       <c r="O7">
-        <v>10.97082639372649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.85094624093938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.80807442575622</v>
+        <v>13.71291518266176</v>
       </c>
       <c r="C8">
-        <v>19.09845263223423</v>
+        <v>8.332980919734059</v>
       </c>
       <c r="D8">
-        <v>7.115485260564655</v>
+        <v>6.896351822406004</v>
       </c>
       <c r="E8">
-        <v>29.39087229226797</v>
+        <v>8.687216212014253</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>18.89434828099777</v>
+        <v>24.34384419979708</v>
       </c>
       <c r="H8">
-        <v>6.855233791680851</v>
+        <v>2.355604519256781</v>
       </c>
       <c r="I8">
-        <v>8.008547443511491</v>
+        <v>3.276010077400114</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.647568128930136</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.03709982718521</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.63088827524588</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.142349758964003</v>
       </c>
       <c r="O8">
-        <v>11.21864171412633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.86982630891279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.56957832506219</v>
+        <v>15.79497404935961</v>
       </c>
       <c r="C9">
-        <v>21.88237805773026</v>
+        <v>8.778207224378102</v>
       </c>
       <c r="D9">
-        <v>8.287820270476383</v>
+        <v>8.003263890456076</v>
       </c>
       <c r="E9">
-        <v>34.54166329890572</v>
+        <v>9.285345253800962</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.66289923913859</v>
+        <v>25.17059578106465</v>
       </c>
       <c r="H9">
-        <v>6.876234144275993</v>
+        <v>1.913830252195581</v>
       </c>
       <c r="I9">
-        <v>7.072670700740467</v>
+        <v>2.918985396933953</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.598867550918108</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.95409144920538</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.07273984869822</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.800471005550863</v>
       </c>
       <c r="O9">
-        <v>11.89265386991019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.98555514696439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.06144210382644</v>
+        <v>17.13509902408079</v>
       </c>
       <c r="C10">
-        <v>23.73464476242149</v>
+        <v>9.138196005184255</v>
       </c>
       <c r="D10">
-        <v>9.070556850853571</v>
+        <v>8.734811738674942</v>
       </c>
       <c r="E10">
-        <v>38.05769150989953</v>
+        <v>9.529436354471176</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.91282826394669</v>
+        <v>25.59387349728796</v>
       </c>
       <c r="H10">
-        <v>6.957957772082462</v>
+        <v>1.642784801954139</v>
       </c>
       <c r="I10">
-        <v>6.498858223566524</v>
+        <v>2.686769182480554</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.538771995983623</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.81785826608935</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.05502134682761</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.121740652206084</v>
       </c>
       <c r="O10">
-        <v>12.51008326021339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.00404270405106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.1372786237451</v>
+        <v>17.5186276056585</v>
       </c>
       <c r="C11">
-        <v>24.53602337110216</v>
+        <v>9.697060642967605</v>
       </c>
       <c r="D11">
-        <v>9.4102502921245</v>
+        <v>9.046731841975175</v>
       </c>
       <c r="E11">
-        <v>39.60565758794502</v>
+        <v>8.353780108982685</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.939407056261</v>
+        <v>23.96640709459409</v>
       </c>
       <c r="H11">
-        <v>7.011675053753982</v>
+        <v>2.704483071511127</v>
       </c>
       <c r="I11">
-        <v>6.273134439709269</v>
+        <v>2.644389803429267</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.200483602003017</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.0172976356696</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.61723628718291</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.161170820988811</v>
       </c>
       <c r="O11">
-        <v>12.96792965679523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.23892835472427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.5364843982521</v>
+        <v>17.57912058164806</v>
       </c>
       <c r="C12">
-        <v>24.83362948083349</v>
+        <v>10.12871190230242</v>
       </c>
       <c r="D12">
-        <v>9.536587179804808</v>
+        <v>9.161138129256544</v>
       </c>
       <c r="E12">
-        <v>40.185061103378</v>
+        <v>7.530926740616714</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.32861945908352</v>
+        <v>22.55524470497351</v>
       </c>
       <c r="H12">
-        <v>7.034567007256287</v>
+        <v>4.115738187564833</v>
       </c>
       <c r="I12">
-        <v>6.193920265464574</v>
+        <v>2.635181777403943</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.939992795012786</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.4227593446</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.88810094713789</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.321724555107028</v>
       </c>
       <c r="O12">
-        <v>13.178011630303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.61674928804854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.45087065150678</v>
+        <v>17.38811951641711</v>
       </c>
       <c r="C13">
-        <v>24.76979396953944</v>
+        <v>10.50198068663389</v>
       </c>
       <c r="D13">
-        <v>9.509479500206504</v>
+        <v>9.13402573109903</v>
       </c>
       <c r="E13">
-        <v>40.06056679039625</v>
+        <v>6.980554975734872</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.24477326337591</v>
+        <v>21.14734405611638</v>
       </c>
       <c r="H13">
-        <v>7.029520690888166</v>
+        <v>5.553586154079096</v>
       </c>
       <c r="I13">
-        <v>6.210680217944049</v>
+        <v>2.666566050444326</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.712862747554695</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.92715960751364</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.96512651053824</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.535410011040278</v>
       </c>
       <c r="O13">
-        <v>13.13278715262179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14.03885006784545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.1702849864023</v>
+        <v>17.13623878734115</v>
       </c>
       <c r="C14">
-        <v>24.56062456598456</v>
+        <v>10.74676026409741</v>
       </c>
       <c r="D14">
-        <v>9.420689808553039</v>
+        <v>9.050687741918116</v>
       </c>
       <c r="E14">
-        <v>39.65345742440041</v>
+        <v>6.793322930123158</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.9714178880115</v>
+        <v>20.1564374747046</v>
       </c>
       <c r="H14">
-        <v>7.013506304316048</v>
+        <v>6.568388910676026</v>
       </c>
       <c r="I14">
-        <v>6.266484198279529</v>
+        <v>2.709800095062449</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.569336649986639</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.63087846271771</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.93382193752951</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.035508265994838</v>
       </c>
       <c r="O14">
-        <v>12.98522258278066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.6546848756457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.9973550675566</v>
+        <v>17.01760361994663</v>
       </c>
       <c r="C15">
-        <v>24.43174163607351</v>
+        <v>10.79490334268911</v>
       </c>
       <c r="D15">
-        <v>9.36600611149129</v>
+        <v>8.999790401218778</v>
       </c>
       <c r="E15">
-        <v>39.40322848395152</v>
+        <v>6.774466329718655</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.80404340928114</v>
+        <v>19.90421745911757</v>
       </c>
       <c r="H15">
-        <v>7.004034200500321</v>
+        <v>6.804227440472116</v>
       </c>
       <c r="I15">
-        <v>6.301521006034666</v>
+        <v>2.734125656464626</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.539404127766749</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.57276233962533</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.88600776506404</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.921569106259107</v>
       </c>
       <c r="O15">
-        <v>12.89477348176733</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.56566373398181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.98998124474824</v>
+        <v>16.49120200667216</v>
       </c>
       <c r="C16">
-        <v>23.68144881805268</v>
+        <v>10.58278932021693</v>
       </c>
       <c r="D16">
-        <v>9.048032345451688</v>
+        <v>8.704924786957905</v>
       </c>
       <c r="E16">
-        <v>37.9555439666225</v>
+        <v>6.754875699585034</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>23.84580090226496</v>
+        <v>19.95643051793072</v>
       </c>
       <c r="H16">
-        <v>6.954794839575368</v>
+        <v>6.601998550103091</v>
       </c>
       <c r="I16">
-        <v>6.514415657223682</v>
+        <v>2.83276838688322</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.607937699838097</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.72821994512601</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.4758042301128</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.91385757841632</v>
       </c>
       <c r="O16">
-        <v>12.49048180139999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.66382439318592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.35727992943157</v>
+        <v>16.21886310982157</v>
       </c>
       <c r="C17">
-        <v>23.21065417156488</v>
+        <v>10.28155712344612</v>
       </c>
       <c r="D17">
-        <v>8.848810686824601</v>
+        <v>8.520237003773588</v>
       </c>
       <c r="E17">
-        <v>37.05467023904438</v>
+        <v>6.803226335971692</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>23.25872623788779</v>
+        <v>20.52415204935692</v>
       </c>
       <c r="H17">
-        <v>6.928948022574978</v>
+        <v>5.876583618486262</v>
       </c>
       <c r="I17">
-        <v>6.654824519522435</v>
+        <v>2.886353301576548</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.735590191252134</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.9980029890125</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.17208600997111</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.163955264834414</v>
       </c>
       <c r="O17">
-        <v>12.32180488291973</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.94073222111622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.98792611957899</v>
+        <v>16.14817893213902</v>
       </c>
       <c r="C18">
-        <v>22.93597994872255</v>
+        <v>9.875149606314618</v>
       </c>
       <c r="D18">
-        <v>8.732678482164602</v>
+        <v>8.413450401984182</v>
       </c>
       <c r="E18">
-        <v>36.53162300778344</v>
+        <v>7.106647531664509</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.92133808133447</v>
+        <v>21.63725784795814</v>
       </c>
       <c r="H18">
-        <v>6.915628458829515</v>
+        <v>4.645000247382057</v>
       </c>
       <c r="I18">
-        <v>6.738821115901422</v>
+        <v>2.894482538319838</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.936303002756278</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.4283916288474</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.92780416051977</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.727939326511255</v>
       </c>
       <c r="O18">
-        <v>12.22738831209477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.42124666414666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.86193165350207</v>
+        <v>16.23538284565041</v>
       </c>
       <c r="C19">
-        <v>22.84231074203758</v>
+        <v>9.479478121672235</v>
       </c>
       <c r="D19">
-        <v>8.693091044210242</v>
+        <v>8.378645583160509</v>
       </c>
       <c r="E19">
-        <v>36.35367072956043</v>
+        <v>7.822012374177868</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>22.80715338415443</v>
+        <v>23.0460199040783</v>
       </c>
       <c r="H19">
-        <v>6.91137905740866</v>
+        <v>3.198093671814115</v>
       </c>
       <c r="I19">
-        <v>6.767785016697308</v>
+        <v>2.882089277774369</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.174341406585089</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.95888517605163</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.76333907833778</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.568345667328381</v>
       </c>
       <c r="O19">
-        <v>12.19586511053146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.01134416493546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.42519440106017</v>
+        <v>16.77459720713156</v>
       </c>
       <c r="C20">
-        <v>23.26117275181305</v>
+        <v>9.080716341126074</v>
       </c>
       <c r="D20">
-        <v>8.870177689425212</v>
+        <v>8.547907181760236</v>
       </c>
       <c r="E20">
-        <v>37.15107142834982</v>
+        <v>9.436284588511826</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.32119229863343</v>
+        <v>25.33840897717563</v>
       </c>
       <c r="H20">
-        <v>6.931538111262259</v>
+        <v>1.714363520372559</v>
       </c>
       <c r="I20">
-        <v>6.639534972497444</v>
+        <v>2.777970746644318</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.529116707151914</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.7897524781535</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.81833636060965</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.038142897515007</v>
       </c>
       <c r="O20">
-        <v>12.33949100955119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15.93674935631556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.25292113043359</v>
+        <v>17.78960781682959</v>
       </c>
       <c r="C21">
-        <v>24.6222210590631</v>
+        <v>9.285555792760908</v>
       </c>
       <c r="D21">
-        <v>9.446831372595033</v>
+        <v>9.084677751244813</v>
       </c>
       <c r="E21">
-        <v>39.77321386655188</v>
+        <v>9.870602154064517</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.05169555256846</v>
+        <v>26.02469396687125</v>
       </c>
       <c r="H21">
-        <v>7.018139550580105</v>
+        <v>1.656910437581989</v>
       </c>
       <c r="I21">
-        <v>6.249912490502519</v>
+        <v>2.592511139542024</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.547484934916442</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.83533171538429</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.51505698793451</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.477289617167845</v>
       </c>
       <c r="O21">
-        <v>13.0285785231728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.10900518679185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.39976835241163</v>
+        <v>18.4193398500641</v>
       </c>
       <c r="C22">
-        <v>25.4776396796137</v>
+        <v>9.423833273776328</v>
       </c>
       <c r="D22">
-        <v>9.810345202245117</v>
+        <v>9.421052206242289</v>
       </c>
       <c r="E22">
-        <v>41.44778106730977</v>
+        <v>10.07455219852081</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.18549665508808</v>
+        <v>26.42833911755636</v>
       </c>
       <c r="H22">
-        <v>7.089681198395104</v>
+        <v>1.80042105719845</v>
       </c>
       <c r="I22">
-        <v>6.032516853712351</v>
+        <v>2.537588737623037</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.553984150356049</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.85046020744905</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.95514132306895</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.688028226098044</v>
       </c>
       <c r="O22">
-        <v>13.639224224373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.20612351207053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.79199697928003</v>
+        <v>18.092496890308</v>
       </c>
       <c r="C23">
-        <v>25.02418029536068</v>
+        <v>9.337537839528331</v>
       </c>
       <c r="D23">
-        <v>9.617533634957653</v>
+        <v>9.242904417521178</v>
       </c>
       <c r="E23">
-        <v>40.55738712775758</v>
+        <v>9.974721252357284</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>25.58007365251611</v>
+        <v>26.26087344424548</v>
       </c>
       <c r="H23">
-        <v>7.050075039130871</v>
+        <v>1.724989125874724</v>
       </c>
       <c r="I23">
-        <v>6.14467588294753</v>
+        <v>2.519706444902995</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.558855158650831</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.86427821921948</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.71684009646841</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.574213790377613</v>
       </c>
       <c r="O23">
-        <v>13.31353576304254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.17484357538249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.39450773619825</v>
+        <v>16.78548501776389</v>
       </c>
       <c r="C24">
-        <v>23.23834579114086</v>
+        <v>9.026300365837001</v>
       </c>
       <c r="D24">
-        <v>8.86052264619526</v>
+        <v>8.539336353750928</v>
       </c>
       <c r="E24">
-        <v>37.10750445371846</v>
+        <v>9.571815440176621</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.2929509919467</v>
+        <v>25.56692962837494</v>
       </c>
       <c r="H24">
-        <v>6.930362348120955</v>
+        <v>1.692720834441033</v>
       </c>
       <c r="I24">
-        <v>6.646437266154084</v>
+        <v>2.757680433080155</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.570063464785267</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.89021078651442</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.78664187800844</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.13325199839851</v>
       </c>
       <c r="O24">
-        <v>12.33148714932581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.03615745446659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.60007719465249</v>
+        <v>15.24928318800921</v>
       </c>
       <c r="C25">
-        <v>21.16332889663785</v>
+        <v>8.679623459299284</v>
       </c>
       <c r="D25">
-        <v>7.984687370737591</v>
+        <v>7.718083620622427</v>
       </c>
       <c r="E25">
-        <v>33.19742084713273</v>
+        <v>9.1144971273414</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>20.86548135528412</v>
+        <v>24.86068758537256</v>
       </c>
       <c r="H25">
-        <v>6.859642872630026</v>
+        <v>2.031397436756535</v>
       </c>
       <c r="I25">
-        <v>7.308803842402141</v>
+        <v>3.028787419374889</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.596129883078824</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.93874062639061</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.70764819234293</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.631011456841205</v>
       </c>
       <c r="O25">
-        <v>11.68929291240727</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.91584933590482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_4/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.0279526506826</v>
+        <v>13.97015939345967</v>
       </c>
       <c r="C2">
-        <v>8.382934343219498</v>
+        <v>8.180070090827495</v>
       </c>
       <c r="D2">
-        <v>7.058883708140562</v>
+        <v>7.064267438687477</v>
       </c>
       <c r="E2">
-        <v>8.782716234637396</v>
+        <v>8.588383289068702</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.50537134826402</v>
+        <v>22.86330000538263</v>
       </c>
       <c r="H2">
-        <v>2.291167736478232</v>
+        <v>2.185640094730484</v>
       </c>
       <c r="I2">
-        <v>3.214377593525612</v>
+        <v>3.082529313739172</v>
       </c>
       <c r="J2">
-        <v>9.647964923354337</v>
+        <v>9.729150515976372</v>
       </c>
       <c r="K2">
-        <v>16.04605088031109</v>
+        <v>15.36702930598486</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.61826511301198</v>
       </c>
       <c r="M2">
-        <v>11.83488452260344</v>
+        <v>10.1056165539764</v>
       </c>
       <c r="N2">
-        <v>7.234552554340301</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.94675433127404</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.354217381844717</v>
       </c>
       <c r="Q2">
-        <v>15.90426679971009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.36758550035758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.12066114537646</v>
+        <v>13.09035665006079</v>
       </c>
       <c r="C3">
-        <v>8.194182342405888</v>
+        <v>7.919323803832626</v>
       </c>
       <c r="D3">
-        <v>6.577385694693428</v>
+        <v>6.583181935812163</v>
       </c>
       <c r="E3">
-        <v>8.534134090623452</v>
+        <v>8.367015078768663</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.21485935152886</v>
+        <v>22.71719289844533</v>
       </c>
       <c r="H3">
-        <v>2.477034754894893</v>
+        <v>2.358714022740288</v>
       </c>
       <c r="I3">
-        <v>3.362449505395874</v>
+        <v>3.214549103964564</v>
       </c>
       <c r="J3">
-        <v>9.677304651881444</v>
+        <v>9.740458527913225</v>
       </c>
       <c r="K3">
-        <v>16.09644628424608</v>
+        <v>15.45666111766018</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.76028699450116</v>
       </c>
       <c r="M3">
-        <v>11.21233885393833</v>
+        <v>10.12769853335482</v>
       </c>
       <c r="N3">
-        <v>6.95648799379779</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.31117374877888</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.078795401422633</v>
       </c>
       <c r="Q3">
-        <v>15.87961112345655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.38523404623641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.52900280895817</v>
+        <v>12.51687978918241</v>
       </c>
       <c r="C4">
-        <v>8.075962125035353</v>
+        <v>7.756418978809937</v>
       </c>
       <c r="D4">
-        <v>6.272746872427075</v>
+        <v>6.277005504730039</v>
       </c>
       <c r="E4">
-        <v>8.376017557674245</v>
+        <v>8.226041891577468</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.04517866912935</v>
+        <v>22.6383748444839</v>
       </c>
       <c r="H4">
-        <v>2.59545131746419</v>
+        <v>2.469024726547407</v>
       </c>
       <c r="I4">
-        <v>3.457471123867004</v>
+        <v>3.299580938267077</v>
       </c>
       <c r="J4">
-        <v>9.69801466818425</v>
+        <v>9.748367548375866</v>
       </c>
       <c r="K4">
-        <v>16.13081775500507</v>
+        <v>15.51404348436093</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.8487159880649</v>
       </c>
       <c r="M4">
-        <v>10.81163154583087</v>
+        <v>10.15821736894162</v>
       </c>
       <c r="N4">
-        <v>6.780186558588334</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.90216640701276</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.904514837694498</v>
       </c>
       <c r="Q4">
-        <v>15.86997509339303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.40057112948917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.27683643730463</v>
+        <v>12.27253307155534</v>
       </c>
       <c r="C5">
-        <v>8.030519364931186</v>
+        <v>7.693517959297588</v>
       </c>
       <c r="D5">
-        <v>6.160874637865579</v>
+        <v>6.165099379170769</v>
       </c>
       <c r="E5">
-        <v>8.307640795341943</v>
+        <v>8.164855540698914</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.96441802778174</v>
+        <v>22.59553717099993</v>
       </c>
       <c r="H5">
-        <v>2.645104701421609</v>
+        <v>2.515300641176299</v>
       </c>
       <c r="I5">
-        <v>3.499872184741455</v>
+        <v>3.338330626572822</v>
       </c>
       <c r="J5">
-        <v>9.704841566675977</v>
+        <v>9.74961942171346</v>
       </c>
       <c r="K5">
-        <v>16.13981921443241</v>
+        <v>15.53251897443937</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.87986935461564</v>
       </c>
       <c r="M5">
-        <v>10.64542954676799</v>
+        <v>10.17183506191522</v>
       </c>
       <c r="N5">
-        <v>6.70759874766992</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.73249044580491</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.832832083863943</v>
       </c>
       <c r="Q5">
-        <v>15.86171741849092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.4024821824369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.23156300041688</v>
+        <v>12.22866223382038</v>
       </c>
       <c r="C6">
-        <v>8.027024980718442</v>
+        <v>7.688145072173159</v>
       </c>
       <c r="D6">
-        <v>6.14212581958046</v>
+        <v>6.146344186305333</v>
       </c>
       <c r="E6">
-        <v>8.293014257500046</v>
+        <v>8.151558425712349</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.93426713860929</v>
+        <v>22.57224530100118</v>
       </c>
       <c r="H6">
-        <v>2.653787614620126</v>
+        <v>2.523406960954334</v>
       </c>
       <c r="I6">
-        <v>3.510361694831488</v>
+        <v>3.348811152235936</v>
       </c>
       <c r="J6">
-        <v>9.703234018509933</v>
+        <v>9.747140753727303</v>
       </c>
       <c r="K6">
-        <v>16.13422276251402</v>
+        <v>15.52892645111005</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.87872562347226</v>
       </c>
       <c r="M6">
-        <v>10.61956946017132</v>
+        <v>10.17062317173741</v>
       </c>
       <c r="N6">
-        <v>6.696184775782149</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.7060150466187</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.821545695061104</v>
       </c>
       <c r="Q6">
-        <v>15.85348432115505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.39622566043514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.51797094650569</v>
+        <v>12.50702147690529</v>
       </c>
       <c r="C7">
-        <v>8.086479888227942</v>
+        <v>7.766467855662131</v>
       </c>
       <c r="D7">
-        <v>6.271207614312134</v>
+        <v>6.275437416787971</v>
       </c>
       <c r="E7">
-        <v>8.366478166745923</v>
+        <v>8.21742444085192</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.998216904274</v>
+        <v>22.66080091570984</v>
       </c>
       <c r="H7">
-        <v>2.597111919046849</v>
+        <v>2.471065213333047</v>
       </c>
       <c r="I7">
-        <v>3.46699533487906</v>
+        <v>3.311107372745793</v>
       </c>
       <c r="J7">
-        <v>9.69052711782467</v>
+        <v>9.707733201406448</v>
       </c>
       <c r="K7">
-        <v>16.11146113120776</v>
+        <v>15.48887768081281</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.82561280210298</v>
       </c>
       <c r="M7">
-        <v>10.81481248417562</v>
+        <v>10.14358076640878</v>
       </c>
       <c r="N7">
-        <v>6.781152421178834</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.90393457713608</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.904900622208155</v>
       </c>
       <c r="Q7">
-        <v>15.85094624093938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.37209581639674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.71291518266176</v>
+        <v>13.66722472692837</v>
       </c>
       <c r="C8">
-        <v>8.332980919734059</v>
+        <v>8.099393534192533</v>
       </c>
       <c r="D8">
-        <v>6.896351822406004</v>
+        <v>6.901750698637659</v>
       </c>
       <c r="E8">
-        <v>8.687216212014253</v>
+        <v>8.504285230999512</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.34384419979708</v>
+        <v>22.97619051195475</v>
       </c>
       <c r="H8">
-        <v>2.355604519256781</v>
+        <v>2.24707800855874</v>
       </c>
       <c r="I8">
-        <v>3.276010077400114</v>
+        <v>3.14213343636722</v>
       </c>
       <c r="J8">
-        <v>9.647568128930136</v>
+        <v>9.614831734994741</v>
       </c>
       <c r="K8">
-        <v>16.03709982718521</v>
+        <v>15.35017349774679</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.62644833580932</v>
       </c>
       <c r="M8">
-        <v>11.63088827524588</v>
+        <v>10.07825903099473</v>
       </c>
       <c r="N8">
-        <v>7.142349758964003</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.73431125495686</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.261155443966376</v>
       </c>
       <c r="Q8">
-        <v>15.86982630891279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.31486964197609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.79497404935961</v>
+        <v>15.68746805905351</v>
       </c>
       <c r="C9">
-        <v>8.778207224378102</v>
+        <v>8.71492295151897</v>
       </c>
       <c r="D9">
-        <v>8.003263890456076</v>
+        <v>8.007198990666359</v>
       </c>
       <c r="E9">
-        <v>9.285345253800962</v>
+        <v>9.037419914445657</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.17059578106465</v>
+        <v>23.51292482883121</v>
       </c>
       <c r="H9">
-        <v>1.913830252195581</v>
+        <v>1.83614927870847</v>
       </c>
       <c r="I9">
-        <v>2.918985396933953</v>
+        <v>2.823015286400633</v>
       </c>
       <c r="J9">
-        <v>9.598867550918108</v>
+        <v>9.571525280903042</v>
       </c>
       <c r="K9">
-        <v>15.95409144920538</v>
+        <v>15.15563871727123</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.29638461687375</v>
       </c>
       <c r="M9">
-        <v>13.07273984869822</v>
+        <v>10.1231784164516</v>
       </c>
       <c r="N9">
-        <v>7.800471005550863</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.20623656467516</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.914517713891879</v>
       </c>
       <c r="Q9">
-        <v>15.98555514696439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.30991144075795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.13509902408079</v>
+        <v>16.99451893047124</v>
       </c>
       <c r="C10">
-        <v>9.138196005184255</v>
+        <v>9.184613586075592</v>
       </c>
       <c r="D10">
-        <v>8.734811738674942</v>
+        <v>8.73707695182225</v>
       </c>
       <c r="E10">
-        <v>9.529436354471176</v>
+        <v>9.246430319801833</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.59387349728796</v>
+        <v>24.14371723577987</v>
       </c>
       <c r="H10">
-        <v>1.642784801954139</v>
+        <v>1.588666607752949</v>
       </c>
       <c r="I10">
-        <v>2.686769182480554</v>
+        <v>2.620709080351944</v>
       </c>
       <c r="J10">
-        <v>9.538771995983623</v>
+        <v>9.332995041622953</v>
       </c>
       <c r="K10">
-        <v>15.81785826608935</v>
+        <v>14.90817775373215</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.97662320481136</v>
       </c>
       <c r="M10">
-        <v>14.05502134682761</v>
+        <v>10.14143841279344</v>
       </c>
       <c r="N10">
-        <v>8.121740652206084</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.20069009094005</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.230639970454847</v>
       </c>
       <c r="Q10">
-        <v>16.00404270405106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.18971940151604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.5186276056585</v>
+        <v>17.39731590353588</v>
       </c>
       <c r="C11">
-        <v>9.697060642967605</v>
+        <v>9.782416840470761</v>
       </c>
       <c r="D11">
-        <v>9.046731841975175</v>
+        <v>9.048144326945369</v>
       </c>
       <c r="E11">
-        <v>8.353780108982685</v>
+        <v>8.119722269580972</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>23.96640709459409</v>
+        <v>23.44664745754923</v>
       </c>
       <c r="H11">
-        <v>2.704483071511127</v>
+        <v>2.677040163802047</v>
       </c>
       <c r="I11">
-        <v>2.644389803429267</v>
+        <v>2.593036668785046</v>
       </c>
       <c r="J11">
-        <v>9.200483602003017</v>
+        <v>8.733227574415572</v>
       </c>
       <c r="K11">
-        <v>15.0172976356696</v>
+        <v>14.13430192850627</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.38864174856031</v>
       </c>
       <c r="M11">
-        <v>14.61723628718291</v>
+        <v>9.592251358935794</v>
       </c>
       <c r="N11">
-        <v>7.161170820988811</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.73998154036525</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.257276357257996</v>
       </c>
       <c r="Q11">
-        <v>15.23892835472427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.37530526544833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.57912058164806</v>
+        <v>17.47837359080999</v>
       </c>
       <c r="C12">
-        <v>10.12871190230242</v>
+        <v>10.21039008285051</v>
       </c>
       <c r="D12">
-        <v>9.161138129256544</v>
+        <v>9.16233934729652</v>
       </c>
       <c r="E12">
-        <v>7.530926740616714</v>
+        <v>7.345888805371064</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22.55524470497351</v>
+        <v>22.5249527123339</v>
       </c>
       <c r="H12">
-        <v>4.115738187564833</v>
+        <v>4.098183114848673</v>
       </c>
       <c r="I12">
-        <v>2.635181777403943</v>
+        <v>2.586161942876326</v>
       </c>
       <c r="J12">
-        <v>8.939992795012786</v>
+        <v>8.434007564630464</v>
       </c>
       <c r="K12">
-        <v>14.4227593446</v>
+        <v>13.6142414144576</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.03266483115689</v>
       </c>
       <c r="M12">
-        <v>14.88810094713789</v>
+        <v>9.171210763908935</v>
       </c>
       <c r="N12">
-        <v>6.321724555107028</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.99183142415365</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.40946163427932</v>
       </c>
       <c r="Q12">
-        <v>14.61674928804854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.78095001553062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.38811951641711</v>
+        <v>17.30923070069083</v>
       </c>
       <c r="C13">
-        <v>10.50198068663389</v>
+        <v>10.56445603591734</v>
       </c>
       <c r="D13">
-        <v>9.13402573109903</v>
+        <v>9.135621546594809</v>
       </c>
       <c r="E13">
-        <v>6.980554975734872</v>
+        <v>6.84792888504265</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>21.14734405611638</v>
+        <v>21.13043217757282</v>
       </c>
       <c r="H13">
-        <v>5.553586154079096</v>
+        <v>5.538948605689907</v>
       </c>
       <c r="I13">
-        <v>2.666566050444326</v>
+        <v>2.612667652117235</v>
       </c>
       <c r="J13">
-        <v>8.712862747554695</v>
+        <v>8.333892476156542</v>
       </c>
       <c r="K13">
-        <v>13.92715960751364</v>
+        <v>13.24113183606098</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.80047583106708</v>
       </c>
       <c r="M13">
-        <v>14.96512651053824</v>
+        <v>8.823665518292421</v>
       </c>
       <c r="N13">
-        <v>5.535410011040278</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.05344574192942</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.618840673581539</v>
       </c>
       <c r="Q13">
-        <v>14.03885006784545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.31211143013705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.13623878734115</v>
+        <v>17.07364118312725</v>
       </c>
       <c r="C14">
-        <v>10.74676026409741</v>
+        <v>10.78913706640433</v>
       </c>
       <c r="D14">
-        <v>9.050687741918116</v>
+        <v>9.052817258773226</v>
       </c>
       <c r="E14">
-        <v>6.793322930123158</v>
+        <v>6.697951873345599</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>20.1564374747046</v>
+        <v>19.94904048083533</v>
       </c>
       <c r="H14">
-        <v>6.568388910676026</v>
+        <v>6.554250064602993</v>
       </c>
       <c r="I14">
-        <v>2.709800095062449</v>
+        <v>2.649890102863015</v>
       </c>
       <c r="J14">
-        <v>8.569336649986639</v>
+        <v>8.33248742688639</v>
       </c>
       <c r="K14">
-        <v>13.63087846271771</v>
+        <v>13.0441485288565</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.6851513343777</v>
       </c>
       <c r="M14">
-        <v>14.93382193752951</v>
+        <v>8.618706039261657</v>
       </c>
       <c r="N14">
-        <v>5.035508265994838</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.01262099441853</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.117862045988679</v>
       </c>
       <c r="Q14">
-        <v>13.6546848756457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.03542860830795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.01760361994663</v>
+        <v>16.95951257188524</v>
       </c>
       <c r="C15">
-        <v>10.79490334268911</v>
+        <v>10.83162152547874</v>
       </c>
       <c r="D15">
-        <v>8.999790401218778</v>
+        <v>9.002172970605145</v>
       </c>
       <c r="E15">
-        <v>6.774466329718655</v>
+        <v>6.688677462030745</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>19.90421745911757</v>
+        <v>19.5701179829801</v>
       </c>
       <c r="H15">
-        <v>6.804227440472116</v>
+        <v>6.78973549495162</v>
       </c>
       <c r="I15">
-        <v>2.734125656464626</v>
+        <v>2.672009879013768</v>
       </c>
       <c r="J15">
-        <v>8.539404127766749</v>
+        <v>8.360393535541647</v>
       </c>
       <c r="K15">
-        <v>13.57276233962533</v>
+        <v>13.01657277475793</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.67122097240146</v>
       </c>
       <c r="M15">
-        <v>14.88600776506404</v>
+        <v>8.580393691458434</v>
       </c>
       <c r="N15">
-        <v>4.921569106259107</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.96310040567648</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.004523919760228</v>
       </c>
       <c r="Q15">
-        <v>13.56566373398181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.9858316547728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.49120200667216</v>
+        <v>16.43801574034661</v>
       </c>
       <c r="C16">
-        <v>10.58278932021693</v>
+        <v>10.61150385113541</v>
       </c>
       <c r="D16">
-        <v>8.704924786957905</v>
+        <v>8.708402899637187</v>
       </c>
       <c r="E16">
-        <v>6.754875699585034</v>
+        <v>6.675522685183644</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>19.95643051793072</v>
+        <v>18.98355943792612</v>
       </c>
       <c r="H16">
-        <v>6.601998550103091</v>
+        <v>6.582645317778843</v>
       </c>
       <c r="I16">
-        <v>2.83276838688322</v>
+        <v>2.756924993898055</v>
       </c>
       <c r="J16">
-        <v>8.607937699838097</v>
+        <v>8.642837450086443</v>
       </c>
       <c r="K16">
-        <v>13.72821994512601</v>
+        <v>13.22637133494376</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.82117802041817</v>
       </c>
       <c r="M16">
-        <v>14.4758042301128</v>
+        <v>8.705023689129284</v>
       </c>
       <c r="N16">
-        <v>4.91385757841632</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.55855822220394</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.004782964850277</v>
       </c>
       <c r="Q16">
-        <v>13.66382439318592</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.19330622755447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.21886310982157</v>
+        <v>16.16150036885132</v>
       </c>
       <c r="C17">
-        <v>10.28155712344612</v>
+        <v>10.30934543878507</v>
       </c>
       <c r="D17">
-        <v>8.520237003773588</v>
+        <v>8.524190457248944</v>
       </c>
       <c r="E17">
-        <v>6.803226335971692</v>
+        <v>6.707920392242587</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.52415204935692</v>
+        <v>19.2508725765618</v>
       </c>
       <c r="H17">
-        <v>5.876583618486262</v>
+        <v>5.852113701265918</v>
       </c>
       <c r="I17">
-        <v>2.886353301576548</v>
+        <v>2.803724584159221</v>
       </c>
       <c r="J17">
-        <v>8.735590191252134</v>
+        <v>8.85438034333194</v>
       </c>
       <c r="K17">
-        <v>13.9980029890125</v>
+        <v>13.48692048869086</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.00760693908184</v>
       </c>
       <c r="M17">
-        <v>14.17208600997111</v>
+        <v>8.895028066420771</v>
       </c>
       <c r="N17">
-        <v>5.163955264834414</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.26308677868201</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.260801947392627</v>
       </c>
       <c r="Q17">
-        <v>13.94073222111622</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.48907728327693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14817893213902</v>
+        <v>16.07650929762357</v>
       </c>
       <c r="C18">
-        <v>9.875149606314618</v>
+        <v>9.90753667373988</v>
       </c>
       <c r="D18">
-        <v>8.413450401984182</v>
+        <v>8.417503209925453</v>
       </c>
       <c r="E18">
-        <v>7.106647531664509</v>
+        <v>6.971794868920038</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>21.63725784795814</v>
+        <v>20.15692445034604</v>
       </c>
       <c r="H18">
-        <v>4.645000247382057</v>
+        <v>4.61312998549722</v>
       </c>
       <c r="I18">
-        <v>2.894482538319838</v>
+        <v>2.808063333489371</v>
       </c>
       <c r="J18">
-        <v>8.936303002756278</v>
+        <v>9.070128164454278</v>
       </c>
       <c r="K18">
-        <v>14.4283916288474</v>
+        <v>13.86030307012519</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.278673151471</v>
       </c>
       <c r="M18">
-        <v>13.92780416051977</v>
+        <v>9.186243370687674</v>
       </c>
       <c r="N18">
-        <v>5.727939326511255</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.03208331599857</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.829877210092588</v>
       </c>
       <c r="Q18">
-        <v>14.42124666414666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.93203885485251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.23538284565041</v>
+        <v>16.1421769492819</v>
       </c>
       <c r="C19">
-        <v>9.479478121672235</v>
+        <v>9.515759820347718</v>
       </c>
       <c r="D19">
-        <v>8.378645583160509</v>
+        <v>8.382517866788703</v>
       </c>
       <c r="E19">
-        <v>7.822012374177868</v>
+        <v>7.632787231132128</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.0460199040783</v>
+        <v>21.38956584201889</v>
       </c>
       <c r="H19">
-        <v>3.198093671814115</v>
+        <v>3.154075180602495</v>
       </c>
       <c r="I19">
-        <v>2.882089277774369</v>
+        <v>2.798562328582673</v>
       </c>
       <c r="J19">
-        <v>9.174341406585089</v>
+        <v>9.28387119101339</v>
       </c>
       <c r="K19">
-        <v>14.95888517605163</v>
+        <v>14.3009744663484</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.60023450933315</v>
       </c>
       <c r="M19">
-        <v>13.76333907833778</v>
+        <v>9.53896203444668</v>
       </c>
       <c r="N19">
-        <v>6.568345667328381</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.88412284824634</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.674825479764445</v>
       </c>
       <c r="Q19">
-        <v>15.01134416493546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.44920139132233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.77459720713156</v>
+        <v>16.64071143524624</v>
       </c>
       <c r="C20">
-        <v>9.080716341126074</v>
+        <v>9.117221719097852</v>
       </c>
       <c r="D20">
-        <v>8.547907181760236</v>
+        <v>8.550819815070893</v>
       </c>
       <c r="E20">
-        <v>9.436284588511826</v>
+        <v>9.161826664577907</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.33840897717563</v>
+        <v>23.60149676706402</v>
       </c>
       <c r="H20">
-        <v>1.714363520372559</v>
+        <v>1.652696404605065</v>
       </c>
       <c r="I20">
-        <v>2.777970746644318</v>
+        <v>2.708534946028017</v>
       </c>
       <c r="J20">
-        <v>9.529116707151914</v>
+        <v>9.483838150816993</v>
       </c>
       <c r="K20">
-        <v>15.7897524781535</v>
+        <v>14.94038625971404</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.03620007509535</v>
       </c>
       <c r="M20">
-        <v>13.81833636060965</v>
+        <v>10.10624277507812</v>
       </c>
       <c r="N20">
-        <v>8.038142897515007</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.96412188734424</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.149602844757505</v>
       </c>
       <c r="Q20">
-        <v>15.93674935631556</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.19906785092571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.78960781682959</v>
+        <v>17.63902822058787</v>
       </c>
       <c r="C21">
-        <v>9.285555792760908</v>
+        <v>9.346899418179193</v>
       </c>
       <c r="D21">
-        <v>9.084677751244813</v>
+        <v>9.085245061783205</v>
       </c>
       <c r="E21">
-        <v>9.870602154064517</v>
+        <v>9.570325520159034</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.02469396687125</v>
+        <v>25.6741090898474</v>
       </c>
       <c r="H21">
-        <v>1.656910437581989</v>
+        <v>1.693646659781823</v>
       </c>
       <c r="I21">
-        <v>2.592511139542024</v>
+        <v>2.55221687443753</v>
       </c>
       <c r="J21">
-        <v>9.547484934916442</v>
+        <v>8.822397267912791</v>
       </c>
       <c r="K21">
-        <v>15.83533171538429</v>
+        <v>14.74446668615214</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.7936408596638</v>
       </c>
       <c r="M21">
-        <v>14.51505698793451</v>
+        <v>10.13000689882569</v>
       </c>
       <c r="N21">
-        <v>8.477289617167845</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.65526033934763</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.578956788099124</v>
       </c>
       <c r="Q21">
-        <v>16.10900518679185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.05377055279681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.4193398500641</v>
+        <v>18.26066795483664</v>
       </c>
       <c r="C22">
-        <v>9.423833273776328</v>
+        <v>9.497453796059476</v>
       </c>
       <c r="D22">
-        <v>9.421052206242289</v>
+        <v>9.419984660794192</v>
       </c>
       <c r="E22">
-        <v>10.07455219852081</v>
+        <v>9.762801718892051</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.42833911755636</v>
+        <v>27.11412759651659</v>
       </c>
       <c r="H22">
-        <v>1.80042105719845</v>
+        <v>1.822223985961103</v>
       </c>
       <c r="I22">
-        <v>2.537588737623037</v>
+        <v>2.578486679614928</v>
       </c>
       <c r="J22">
-        <v>9.553984150356049</v>
+        <v>8.418367853026036</v>
       </c>
       <c r="K22">
-        <v>15.85046020744905</v>
+        <v>14.5942526794377</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.62363641800957</v>
       </c>
       <c r="M22">
-        <v>14.95514132306895</v>
+        <v>10.13556240402415</v>
       </c>
       <c r="N22">
-        <v>8.688028226098044</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.08996490547019</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.782997809652853</v>
       </c>
       <c r="Q22">
-        <v>16.20612351207053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.93085464531206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.092496890308</v>
+        <v>17.93619302633586</v>
       </c>
       <c r="C23">
-        <v>9.337537839528331</v>
+        <v>9.408250847072566</v>
       </c>
       <c r="D23">
-        <v>9.242904417521178</v>
+        <v>9.242817380764892</v>
       </c>
       <c r="E23">
-        <v>9.974721252357284</v>
+        <v>9.66696878991103</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.26087344424548</v>
+        <v>26.21277519068743</v>
       </c>
       <c r="H23">
-        <v>1.724989125874724</v>
+        <v>1.75540111125867</v>
       </c>
       <c r="I23">
-        <v>2.519706444902995</v>
+        <v>2.523979399713581</v>
       </c>
       <c r="J23">
-        <v>9.558855158650831</v>
+        <v>8.693714119908687</v>
       </c>
       <c r="K23">
-        <v>15.86427821921948</v>
+        <v>14.71200364285635</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.73875599702888</v>
       </c>
       <c r="M23">
-        <v>14.71684009646841</v>
+        <v>10.16439321173552</v>
       </c>
       <c r="N23">
-        <v>8.574213790377613</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.85693958186631</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.673774423989348</v>
       </c>
       <c r="Q23">
-        <v>16.17484357538249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.04227248212064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.78548501776389</v>
+        <v>16.64919761355168</v>
       </c>
       <c r="C24">
-        <v>9.026300365837001</v>
+        <v>9.05399800069007</v>
       </c>
       <c r="D24">
-        <v>8.539336353750928</v>
+        <v>8.542228645249585</v>
       </c>
       <c r="E24">
-        <v>9.571815440176621</v>
+        <v>9.29192809042148</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.56692962837494</v>
+        <v>23.80048938728622</v>
       </c>
       <c r="H24">
-        <v>1.692720834441033</v>
+        <v>1.63088514352369</v>
       </c>
       <c r="I24">
-        <v>2.757680433080155</v>
+        <v>2.684762093277765</v>
       </c>
       <c r="J24">
-        <v>9.570063464785267</v>
+        <v>9.524656543130984</v>
       </c>
       <c r="K24">
-        <v>15.89021078651442</v>
+        <v>15.02817490704594</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.10106606997136</v>
       </c>
       <c r="M24">
-        <v>13.78664187800844</v>
+        <v>10.17508661232604</v>
       </c>
       <c r="N24">
-        <v>8.13325199839851</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.93416521043932</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.245464537130132</v>
       </c>
       <c r="Q24">
-        <v>16.03615745446659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.29013823469823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.24928318800921</v>
+        <v>15.15682456111538</v>
       </c>
       <c r="C25">
-        <v>8.679623459299284</v>
+        <v>8.58023849954094</v>
       </c>
       <c r="D25">
-        <v>7.718083620622427</v>
+        <v>7.722548403529583</v>
       </c>
       <c r="E25">
-        <v>9.1144971273414</v>
+        <v>8.883600380636846</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.86068758537256</v>
+        <v>23.18631585235176</v>
       </c>
       <c r="H25">
-        <v>2.031397436756535</v>
+        <v>1.944949074367843</v>
       </c>
       <c r="I25">
-        <v>3.028787419374889</v>
+        <v>2.925103644184933</v>
       </c>
       <c r="J25">
-        <v>9.596129883078824</v>
+        <v>9.6158023554074</v>
       </c>
       <c r="K25">
-        <v>15.93874062639061</v>
+        <v>15.18440027649954</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.36787369783211</v>
       </c>
       <c r="M25">
-        <v>12.70764819234293</v>
+        <v>10.07997932348605</v>
       </c>
       <c r="N25">
-        <v>7.631011456841205</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.83475178026908</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.746593597608725</v>
       </c>
       <c r="Q25">
-        <v>15.91584933590482</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.29007257144397</v>
       </c>
     </row>
   </sheetData>
